--- a/IAEA-prover_Marielle_20210831.xlsx
+++ b/IAEA-prover_Marielle_20210831.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2CA844-0BF3-4A1B-AD8F-1677DABA9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FBB836-BD3B-4C67-ADD3-1E8201A24451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAEA" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="76">
   <si>
     <t>IAEA-372</t>
   </si>
@@ -250,15 +250,6 @@
   </si>
   <si>
     <t>Burk B 60P</t>
-  </si>
-  <si>
-    <t>5+-2</t>
-  </si>
-  <si>
-    <t>20+-1</t>
-  </si>
-  <si>
-    <t>7+-2</t>
   </si>
   <si>
     <t>Burk A180</t>
@@ -481,27 +472,6 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -522,12 +492,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,6 +502,33 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -952,63 +943,63 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="63" t="s">
+      <c r="S4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="61" t="s">
+      <c r="T4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1039,20 +1030,20 @@
       <c r="O5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1063,13 +1054,13 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="48"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="43"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="7">
@@ -6407,63 +6398,63 @@
       </c>
     </row>
     <row r="95" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A95" s="55" t="s">
+      <c r="A95" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="56" t="s">
+      <c r="D95" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="57" t="s">
+      <c r="E95" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="58" t="s">
+      <c r="F95" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="59" t="s">
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+      <c r="K95" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="60" t="s">
+      <c r="L95" s="62"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="62"/>
+      <c r="O95" s="62"/>
+      <c r="P95" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q95" s="61" t="s">
+      <c r="Q95" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="R95" s="62" t="s">
+      <c r="R95" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="S95" s="63" t="s">
+      <c r="S95" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T95" s="61" t="s">
+      <c r="T95" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="U95" s="62" t="s">
+      <c r="U95" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="V95" s="63" t="s">
+      <c r="V95" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="55"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="57"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="2" t="s">
         <v>17</v>
       </c>
@@ -6494,20 +6485,20 @@
       <c r="O96" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P96" s="60"/>
-      <c r="Q96" s="61"/>
-      <c r="R96" s="62"/>
-      <c r="S96" s="63"/>
-      <c r="T96" s="61"/>
-      <c r="U96" s="62"/>
-      <c r="V96" s="63"/>
-    </row>
-    <row r="97" spans="1:22">
-      <c r="A97" s="45"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="47"/>
+      <c r="P96" s="63"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="55"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="57"/>
+      <c r="U96" s="55"/>
+      <c r="V96" s="56"/>
+    </row>
+    <row r="97" spans="1:24">
+      <c r="A97" s="48"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="50"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -6518,15 +6509,15 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="48"/>
+      <c r="P97" s="51"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="5"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="44"/>
-      <c r="U97" s="42"/>
-      <c r="V97" s="43"/>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="T97" s="52"/>
+      <c r="U97" s="53"/>
+      <c r="V97" s="54"/>
+    </row>
+    <row r="98" spans="1:24" ht="15">
       <c r="A98" s="16">
         <v>44436.8972222222</v>
       </c>
@@ -6597,7 +6588,7 @@
         <v>2.1096078880990597E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:24" ht="15">
       <c r="A99" s="16">
         <v>44439.548611111102</v>
       </c>
@@ -6607,8 +6598,8 @@
       <c r="C99">
         <v>5.67</v>
       </c>
-      <c r="D99" t="s">
-        <v>73</v>
+      <c r="D99">
+        <v>5</v>
       </c>
       <c r="E99">
         <v>227000</v>
@@ -6668,208 +6659,519 @@
         <v>3.1428571428571431E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:24" ht="15">
+      <c r="A100" s="16">
+        <v>44440.358333333301</v>
+      </c>
       <c r="B100" t="s">
         <v>71</v>
       </c>
       <c r="C100">
         <v>45.17</v>
       </c>
-      <c r="D100" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q100" s="26" t="e">
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>68400</v>
+      </c>
+      <c r="F100">
+        <v>661.67</v>
+      </c>
+      <c r="G100">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H100">
+        <v>23815</v>
+      </c>
+      <c r="I100">
+        <v>22933</v>
+      </c>
+      <c r="J100">
+        <v>165</v>
+      </c>
+      <c r="K100">
+        <v>1461.05</v>
+      </c>
+      <c r="L100">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M100">
+        <v>3163</v>
+      </c>
+      <c r="N100">
+        <v>2961</v>
+      </c>
+      <c r="O100">
+        <v>67</v>
+      </c>
+      <c r="Q100" s="26">
         <f>I100/E100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R100" s="27" t="e">
+        <v>0.33527777777777779</v>
+      </c>
+      <c r="R100" s="27">
         <f>I100/E100/C100*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S100" s="28" t="e">
+        <v>7.4225764396231524</v>
+      </c>
+      <c r="S100" s="28">
         <f>J100/I100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T100" s="29" t="e">
+        <v>7.1948720184886409E-3</v>
+      </c>
+      <c r="T100" s="29">
         <f>N100/E100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U100" s="29" t="e">
+        <v>4.3289473684210523E-2</v>
+      </c>
+      <c r="U100" s="29">
         <f>N100/E100/C100*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V100" s="30" t="e">
+        <v>0.95836780350255746</v>
+      </c>
+      <c r="V100" s="30">
         <f>O100/N100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+        <v>2.2627490712597096E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="15">
+      <c r="A101" s="16">
+        <v>44441.777777777803</v>
+      </c>
       <c r="B101" t="s">
         <v>72</v>
       </c>
       <c r="C101">
         <v>10.81</v>
       </c>
-      <c r="D101" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q101" s="26" t="e">
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>122400</v>
+      </c>
+      <c r="F101">
+        <v>661.64</v>
+      </c>
+      <c r="G101">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H101">
+        <v>14076</v>
+      </c>
+      <c r="I101">
+        <v>12707</v>
+      </c>
+      <c r="J101">
+        <v>140</v>
+      </c>
+      <c r="K101">
+        <v>1461.07</v>
+      </c>
+      <c r="L101">
+        <v>4.21</v>
+      </c>
+      <c r="M101">
+        <v>2450</v>
+      </c>
+      <c r="N101">
+        <v>2092</v>
+      </c>
+      <c r="O101">
+        <v>70</v>
+      </c>
+      <c r="Q101" s="26">
         <f>I101/E101</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R101" s="27" t="e">
+        <v>0.10381535947712418</v>
+      </c>
+      <c r="R101" s="27">
         <f>I101/E101/C101*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S101" s="28" t="e">
+        <v>9.603641024710841</v>
+      </c>
+      <c r="S101" s="28">
         <f>J101/I101</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T101" s="29" t="e">
+        <v>1.1017549382230266E-2</v>
+      </c>
+      <c r="T101" s="29">
         <f>N101/E101</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U101" s="29" t="e">
+        <v>1.7091503267973856E-2</v>
+      </c>
+      <c r="U101" s="29">
         <f>N101/E101/C101*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V101" s="30" t="e">
+        <v>1.5810826334850929</v>
+      </c>
+      <c r="V101" s="30">
         <f>O101/N101</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
-      <c r="Q102" s="26" t="e">
+        <v>3.3460803059273424E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="15">
+      <c r="A102" s="16">
+        <v>44442.364583333299</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102">
+        <v>39.89</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>50000</v>
+      </c>
+      <c r="F102">
+        <v>661.66</v>
+      </c>
+      <c r="G102">
+        <v>2.25</v>
+      </c>
+      <c r="H102">
+        <v>16125</v>
+      </c>
+      <c r="I102">
+        <v>15410</v>
+      </c>
+      <c r="J102">
+        <v>138</v>
+      </c>
+      <c r="K102">
+        <v>1461.02</v>
+      </c>
+      <c r="L102">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M102">
+        <v>2154</v>
+      </c>
+      <c r="N102">
+        <v>1934</v>
+      </c>
+      <c r="O102">
+        <v>61</v>
+      </c>
+      <c r="Q102" s="26">
         <f>I102/E102</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R102" s="27" t="e">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="R102" s="27">
         <f>I102/E102/C102*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S102" s="28" t="e">
+        <v>7.7262471797442958</v>
+      </c>
+      <c r="S102" s="28">
         <f>J102/I102</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T102" s="29" t="e">
+        <v>8.9552238805970154E-3</v>
+      </c>
+      <c r="T102" s="29">
         <f>N102/E102</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U102" s="29" t="e">
+        <v>3.8679999999999999E-2</v>
+      </c>
+      <c r="U102" s="29">
         <f>N102/E102/C102*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V102" s="30" t="e">
+        <v>0.9696665831035346</v>
+      </c>
+      <c r="V102" s="30">
         <f>O102/N102</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
-      <c r="Q103" s="26" t="e">
+        <v>3.1540847983453982E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="15">
+      <c r="A103" s="16">
+        <v>44444.599305555603</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>192800</v>
+      </c>
+      <c r="F103">
+        <v>661.67</v>
+      </c>
+      <c r="G103">
+        <v>2.19</v>
+      </c>
+      <c r="H103">
+        <v>29994</v>
+      </c>
+      <c r="I103">
+        <v>27706</v>
+      </c>
+      <c r="J103">
+        <v>198</v>
+      </c>
+      <c r="K103">
+        <v>1461.19</v>
+      </c>
+      <c r="L103">
+        <v>3.91</v>
+      </c>
+      <c r="M103">
+        <v>4667</v>
+      </c>
+      <c r="N103">
+        <v>4053</v>
+      </c>
+      <c r="O103">
+        <v>95</v>
+      </c>
+      <c r="Q103" s="26">
         <f>I103/E103</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R103" s="27" t="e">
+        <v>0.14370331950207468</v>
+      </c>
+      <c r="R103" s="27">
         <f>I103/E103/C103*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S103" s="28" t="e">
+        <v>8.9367736008752932</v>
+      </c>
+      <c r="S103" s="28">
         <f>J103/I103</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T103" s="29" t="e">
+        <v>7.1464664693568179E-3</v>
+      </c>
+      <c r="T103" s="29">
         <f>N103/E103</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U103" s="29" t="e">
+        <v>2.1021784232365146E-2</v>
+      </c>
+      <c r="U103" s="29">
         <f>N103/E103/C103*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V103" s="30" t="e">
+        <v>1.3073248900724594</v>
+      </c>
+      <c r="V103" s="30">
         <f>O103/N103</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
-      <c r="Q104" s="26" t="e">
+        <v>2.3439427584505304E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="15">
+      <c r="A104" s="16">
+        <v>44445.34375</v>
+      </c>
+      <c r="B104" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>64100</v>
+      </c>
+      <c r="F104">
+        <v>661.7</v>
+      </c>
+      <c r="G104">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H104">
+        <v>18555</v>
+      </c>
+      <c r="I104">
+        <v>17519</v>
+      </c>
+      <c r="J104">
+        <v>151</v>
+      </c>
+      <c r="K104">
+        <v>1461.14</v>
+      </c>
+      <c r="L104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M104">
+        <v>2434</v>
+      </c>
+      <c r="N104">
+        <v>2232</v>
+      </c>
+      <c r="O104">
+        <v>62</v>
+      </c>
+      <c r="Q104" s="26">
         <f>I104/E104</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R104" s="27" t="e">
+        <v>0.27330733229329174</v>
+      </c>
+      <c r="R104" s="27">
         <f>I104/E104/C104*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S104" s="28" t="e">
+        <v>8.0337252290797085</v>
+      </c>
+      <c r="S104" s="28">
         <f>J104/I104</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T104" s="29" t="e">
+        <v>8.6192134254238252E-3</v>
+      </c>
+      <c r="T104" s="29">
         <f>N104/E104</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U104" s="29" t="e">
+        <v>3.4820592823712949E-2</v>
+      </c>
+      <c r="U104" s="29">
         <f>N104/E104/C104*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V104" s="30" t="e">
+        <v>1.023533004812256</v>
+      </c>
+      <c r="V104" s="30">
         <f>O104/N104</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
-      <c r="Q105" s="26" t="e">
-        <f>I105/E105</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R105" s="27" t="e">
-        <f>I105/E105/C105*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S105" s="28" t="e">
-        <f>J105/I105</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T105" s="29" t="e">
-        <f>N105/E105</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U105" s="29" t="e">
-        <f>N105/E105/C105*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V105" s="30" t="e">
-        <f>O105/N105</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
-      <c r="Q106" s="26" t="e">
-        <f>I106/E106</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R106" s="27" t="e">
-        <f>I106/E106/C106*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S106" s="28" t="e">
-        <f>J106/I106</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T106" s="29" t="e">
-        <f>N106/E106</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U106" s="29" t="e">
-        <f>N106/E106/C106*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V106" s="30" t="e">
-        <f>O106/N106</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="15">
+      <c r="A105" s="43">
+        <v>44448.357638888891</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="42">
+        <v>21.92</v>
+      </c>
+      <c r="D105" s="42">
+        <v>11</v>
+      </c>
+      <c r="E105" s="42">
+        <v>119975</v>
+      </c>
+      <c r="F105" s="42">
+        <v>661.61</v>
+      </c>
+      <c r="G105" s="42">
+        <v>2.25</v>
+      </c>
+      <c r="H105" s="42">
+        <v>24846</v>
+      </c>
+      <c r="I105" s="42">
+        <v>23230</v>
+      </c>
+      <c r="J105" s="42">
+        <v>177</v>
+      </c>
+      <c r="K105" s="42">
+        <v>1460.94</v>
+      </c>
+      <c r="L105" s="42">
+        <v>4.13</v>
+      </c>
+      <c r="M105" s="42">
+        <v>3520</v>
+      </c>
+      <c r="N105" s="42">
+        <v>3043</v>
+      </c>
+      <c r="O105" s="42">
+        <v>83</v>
+      </c>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="44">
+        <v>0.19361999999999999</v>
+      </c>
+      <c r="R105" s="45">
+        <v>8.8331999999999997</v>
+      </c>
+      <c r="S105" s="44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T105" s="46">
+        <v>2.5360000000000001E-2</v>
+      </c>
+      <c r="U105" s="46">
+        <v>1.1571</v>
+      </c>
+      <c r="V105" s="47">
+        <v>2.7E-2</v>
+      </c>
+      <c r="W105" s="42"/>
+      <c r="X105" s="42"/>
+    </row>
+    <row r="106" spans="1:24" ht="15">
+      <c r="A106" s="43">
+        <v>44452.35</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="42">
+        <v>28.65</v>
+      </c>
+      <c r="D106" s="42">
+        <v>14</v>
+      </c>
+      <c r="E106" s="42">
+        <v>72200</v>
+      </c>
+      <c r="F106" s="42">
+        <v>661.57</v>
+      </c>
+      <c r="G106" s="42">
+        <v>2.33</v>
+      </c>
+      <c r="H106" s="42">
+        <v>18255</v>
+      </c>
+      <c r="I106" s="42">
+        <v>17262</v>
+      </c>
+      <c r="J106" s="42">
+        <v>149</v>
+      </c>
+      <c r="K106" s="42">
+        <v>1460.98</v>
+      </c>
+      <c r="L106" s="42">
+        <v>3.7</v>
+      </c>
+      <c r="M106" s="42">
+        <v>2490</v>
+      </c>
+      <c r="N106" s="42">
+        <v>2270</v>
+      </c>
+      <c r="O106" s="42">
+        <v>63</v>
+      </c>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="44">
+        <v>0.23909</v>
+      </c>
+      <c r="R106" s="45">
+        <v>8.3451000000000004</v>
+      </c>
+      <c r="S106" s="44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T106" s="46">
+        <v>3.1440000000000003E-2</v>
+      </c>
+      <c r="U106" s="46">
+        <v>1.0973999999999999</v>
+      </c>
+      <c r="V106" s="47">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="W106" s="42"/>
+      <c r="X106" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="K95:O95"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
     <mergeCell ref="U95:U96"/>
     <mergeCell ref="V95:V96"/>
     <mergeCell ref="S4:S5"/>
@@ -6878,26 +7180,6 @@
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="S95:S96"/>
     <mergeCell ref="T95:T96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="K95:O95"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6909,7 +7191,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A4" sqref="A4:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6919,63 +7201,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="14.45">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
@@ -7006,20 +7288,20 @@
       <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:24" ht="14.45">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -7030,13 +7312,13 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="48"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="16">
@@ -7536,140 +7818,140 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="50">
+      <c r="A11" s="43">
         <v>44448.357638888891</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="42">
         <v>21.92</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="42">
         <v>11</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>119975</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="42">
         <v>661.61</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="42">
         <v>2.25</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="42">
         <v>24846</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="42">
         <v>23230</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="42">
         <v>177</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="42">
         <v>1460.94</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="42">
         <v>4.13</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="42">
         <v>3520</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="42">
         <v>3043</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="42">
         <v>83</v>
       </c>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="51">
+      <c r="P11" s="42"/>
+      <c r="Q11" s="44">
         <v>0.19361999999999999</v>
       </c>
-      <c r="R11" s="52">
+      <c r="R11" s="45">
         <v>8.8331999999999997</v>
       </c>
-      <c r="S11" s="51">
+      <c r="S11" s="44">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T11" s="53">
+      <c r="T11" s="46">
         <v>2.5360000000000001E-2</v>
       </c>
-      <c r="U11" s="53">
+      <c r="U11" s="46">
         <v>1.1571</v>
       </c>
-      <c r="V11" s="54">
+      <c r="V11" s="47">
         <v>2.7E-2</v>
       </c>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="50">
+      <c r="A12" s="43">
         <v>44452.35</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="42">
         <v>28.65</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="42">
         <v>14</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="42">
         <v>72200</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="42">
         <v>661.57</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="42">
         <v>2.33</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="42">
         <v>18255</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="42">
         <v>17262</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="42">
         <v>149</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="42">
         <v>1460.98</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="42">
         <v>3.7</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="42">
         <v>2490</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="42">
         <v>2270</v>
       </c>
-      <c r="O12" s="49">
+      <c r="O12" s="42">
         <v>63</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="51">
+      <c r="P12" s="42"/>
+      <c r="Q12" s="44">
         <v>0.23909</v>
       </c>
-      <c r="R12" s="52">
+      <c r="R12" s="45">
         <v>8.3451000000000004</v>
       </c>
-      <c r="S12" s="51">
+      <c r="S12" s="44">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="46">
         <v>3.1440000000000003E-2</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="46">
         <v>1.0973999999999999</v>
       </c>
-      <c r="V12" s="54">
+      <c r="V12" s="47">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
     </row>
     <row r="13" spans="1:24" ht="14.45">
       <c r="A13" s="40">
@@ -7741,6 +8023,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:O1"/>
@@ -7749,12 +8037,6 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7764,7 +8046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A49CA3-21C2-4E71-8614-8FD3A97ABD60}">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -7775,63 +8057,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60" t="s">
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
@@ -7862,20 +8144,20 @@
       <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -7886,20 +8168,20 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="48"/>
+      <c r="P3" s="51"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="54"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="7">
         <v>44263.3972222222</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9">
         <v>7.5149999999999997</v>
@@ -7971,7 +8253,7 @@
         <v>44276.535416666702</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="9">
         <v>11.805999999999999</v>
@@ -8043,7 +8325,7 @@
         <v>44284.4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9">
         <v>21.591999999999999</v>
@@ -8115,7 +8397,7 @@
         <v>44287.638194444502</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>49.188000000000002</v>
@@ -8186,7 +8468,7 @@
         <v>43914.393750000003</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>58.734999999999999</v>
@@ -8257,7 +8539,7 @@
         <v>43900.826388888898</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="18">
         <v>68.754000000000005</v>
@@ -8329,7 +8611,7 @@
         <v>44250.394444444399</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="18">
         <v>73.268000000000001</v>
@@ -8401,7 +8683,7 @@
         <v>44244.395833333299</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C11" s="21">
         <v>80.89</v>
@@ -8473,7 +8755,7 @@
         <v>44292.353472222203</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="18">
         <v>31.154</v>
@@ -8544,7 +8826,7 @@
         <v>44295.577777777798</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="18">
         <v>43.481000000000002</v>
@@ -8615,7 +8897,7 @@
         <v>44298.489583333299</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="18">
         <v>36.802</v>
@@ -8686,7 +8968,7 @@
         <v>44301.759722222203</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="18">
         <v>37.835000000000001</v>
@@ -8757,7 +9039,7 @@
         <v>44304.560416666704</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="18">
         <v>42.381999999999998</v>
@@ -8828,7 +9110,7 @@
         <v>44306.593055555597</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="18">
         <v>33.32</v>
@@ -8902,7 +9184,7 @@
         <v>44307.351388888899</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="18">
         <v>46.83</v>
@@ -8976,7 +9258,7 @@
         <v>44308.356249999997</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="18">
         <v>25.041</v>
@@ -9050,7 +9332,7 @@
         <v>44307.784722222197</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>55.085000000000001</v>
@@ -9124,7 +9406,7 @@
         <v>44309.539583333302</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>14.555</v>
@@ -9198,7 +9480,7 @@
         <v>44308.625</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>65.659000000000006</v>
@@ -9272,7 +9554,7 @@
         <v>44310.691666666702</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>7.8019999999999996</v>
@@ -9346,7 +9628,7 @@
         <v>44309.734722222202</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>72.277000000000001</v>
@@ -9420,7 +9702,7 @@
         <v>44311.537499999999</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>4.8070000000000004</v>
@@ -9494,7 +9776,7 @@
         <v>44312.352083333302</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>75.233999999999995</v>
@@ -9568,7 +9850,7 @@
         <v>44312.579166666699</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>1.63</v>
@@ -9642,7 +9924,7 @@
         <v>44312.734027777798</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C28">
         <v>78.38</v>
@@ -9716,7 +9998,7 @@
         <v>44313.353472222203</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>80</v>
@@ -9790,7 +10072,7 @@
         <v>44340.417361111096</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>3.8359999999999999</v>
@@ -9861,7 +10143,7 @@
         <v>44341.357638888898</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>7.6219999999999999</v>
@@ -9932,7 +10214,7 @@
         <v>44342.354166666701</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>10.135</v>
@@ -10003,7 +10285,7 @@
         <v>44343.360416666699</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>19.242000000000001</v>
@@ -10074,7 +10356,7 @@
         <v>44344.756249999999</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>24.771999999999998</v>
@@ -10142,7 +10424,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>3.8730000000000002</v>
@@ -10210,7 +10492,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>5.5620000000000003</v>
@@ -10281,7 +10563,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>4.5830000000000002</v>
@@ -10352,7 +10634,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>4.5830000000000002</v>
@@ -10423,7 +10705,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>2.9590000000000001</v>
@@ -10494,7 +10776,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <v>3.7519999999999998</v>
@@ -10562,7 +10844,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>2.3199999999999998</v>
@@ -10633,7 +10915,7 @@
     </row>
     <row r="42" spans="1:22">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>2.9350000000000001</v>
@@ -10701,7 +10983,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>1.897</v>
@@ -10769,7 +11051,7 @@
     </row>
     <row r="44" spans="1:22">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.92900000000000005</v>
@@ -10837,7 +11119,7 @@
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C45">
         <v>1.411</v>
@@ -10905,7 +11187,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46">
         <v>3.198</v>
@@ -10973,7 +11255,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="B47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>4.476</v>
@@ -11041,7 +11323,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <v>5.0910000000000002</v>
@@ -11109,7 +11391,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="B49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>4.3170000000000002</v>
@@ -11177,7 +11459,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>2.5640000000000001</v>
@@ -11245,7 +11527,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="B51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>0.72399999999999998</v>
@@ -11887,7 +12169,7 @@
         <v>44368.427083333299</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -11952,6 +12234,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:O1"/>
@@ -11960,12 +12248,6 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IAEA-prover_Marielle_20210831.xlsx
+++ b/IAEA-prover_Marielle_20210831.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24603"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05FBB836-BD3B-4C67-ADD3-1E8201A24451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{940A4659-5168-4E8C-8BB1-782CFEFBBE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAEA" sheetId="1" r:id="rId1"/>
-    <sheet name="moss-soil" sheetId="3" r:id="rId2"/>
-    <sheet name="data" sheetId="2" r:id="rId3"/>
+    <sheet name="moss-soil" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="84">
   <si>
     <t>IAEA-372</t>
   </si>
@@ -252,6 +252,30 @@
     <t>Burk B 60P</t>
   </si>
   <si>
+    <t>5+-2</t>
+  </si>
+  <si>
+    <t>20+-1</t>
+  </si>
+  <si>
+    <t>7+-2</t>
+  </si>
+  <si>
+    <t>18+-1</t>
+  </si>
+  <si>
+    <t>9+-1</t>
+  </si>
+  <si>
+    <t>15+-1</t>
+  </si>
+  <si>
+    <t>11+-1.5</t>
+  </si>
+  <si>
+    <t>14+-1</t>
+  </si>
+  <si>
     <t>Burk A180</t>
   </si>
   <si>
@@ -271,7 +295,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ hh:mm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -283,13 +307,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -409,79 +426,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -503,33 +477,63 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,16 +916,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X106"/>
+  <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD106"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="16" width="8.5703125" customWidth="1"/>
@@ -930,7 +934,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -938,357 +942,357 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="S4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="56"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="7">
+      <c r="A7" s="23">
         <v>44263.3972222222</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="24">
         <v>7.5149999999999997</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="24">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>1120500</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="24">
         <v>661.87</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="24">
         <v>1767355</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="24">
         <v>1746666</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="24">
         <v>1361</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="24">
         <v>1461.38</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="24">
         <v>4.38</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="24">
         <v>24273</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="24">
         <v>20918</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="24">
         <v>219</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="10">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25">
         <f>I7/E7</f>
         <v>1.5588273092369478</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="26">
         <f>I7/E7/C7*1000</f>
         <v>207.4287836642645</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="27">
         <f>J7/I7</f>
         <v>7.7919877068655368E-4</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="28">
         <f>N7/E7</f>
         <v>1.8668451584114235E-2</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="28">
         <f>N7/E7/C7*1000</f>
         <v>2.4841585607603776</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="29">
         <f>O7/N7</f>
         <v>1.0469452146476719E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="7">
+      <c r="A8" s="23">
         <v>44276.535416666702</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="24">
         <v>11.805999999999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="24">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="24">
         <v>922200</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="24">
         <v>661.91</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="24">
         <v>2.29</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="24">
         <v>2236027</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="24">
         <v>2213451</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="24">
         <v>1526</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="24">
         <v>1461.42</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="24">
         <v>4.38</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="24">
         <v>27063</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="24">
         <v>24148</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="24">
         <v>218</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25">
         <f>I8/E8</f>
         <v>2.400185426154847</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="26">
         <f>I8/E8/C8*1000</f>
         <v>203.30217060434077</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="30">
         <f>J8/I8</f>
         <v>6.8942117986799795E-4</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="28">
         <f>N8/E8</f>
         <v>2.6185209282151376E-2</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="28">
         <f>N8/E8/C8*1000</f>
         <v>2.2179577572549025</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="29">
         <f>O8/N8</f>
         <v>9.0276627463972171E-3</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="7">
+      <c r="A9" s="23">
         <v>44284.4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="24">
         <v>21.591999999999999</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="24">
         <v>13.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="24">
         <v>431400</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="24">
         <v>661.91</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="24">
         <v>2.27</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="24">
         <v>1725453</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="24">
         <v>1710585</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="24">
         <v>1336</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="24">
         <v>1461.42</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="24">
         <v>4.3099999999999996</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="24">
         <v>18343</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="24">
         <v>17060</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="24">
         <v>165</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25">
         <f>I9/E9</f>
         <v>3.9651947148817803</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="26">
         <f>I9/E9/C9*1000</f>
         <v>183.64184489078272</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="30">
         <f>J9/I9</f>
         <v>7.810193588743032E-4</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="28">
         <f>N9/E9</f>
         <v>3.9545665275846083E-2</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="28">
         <f>N9/E9/C9*1000</f>
         <v>1.8314961687590814</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="29">
         <f>O9/N9</f>
         <v>9.6717467760844087E-3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="16">
+      <c r="A10" s="31">
         <v>44287.638194444502</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C10">
         <v>49.188000000000002</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="32">
         <v>25</v>
       </c>
       <c r="E10">
@@ -1309,57 +1313,57 @@
       <c r="J10">
         <v>1437</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="32">
         <v>1461.44</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="32">
         <v>4.47</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="32">
         <v>19387</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="32">
         <v>18452</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="32">
         <v>161</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="25">
         <f>I10/E10</f>
         <v>7.2366690962099129</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="26">
         <f>I10/E10/C10*1000</f>
         <v>147.12265382227193</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="30">
         <f>J10/I10</f>
         <v>7.2365896475977247E-4</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="28">
         <f>N10/E10</f>
         <v>6.7244897959183675E-2</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="28">
         <f>N10/E10/C10*1000</f>
         <v>1.3670996576234788</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="29">
         <f>O10/N10</f>
         <v>8.7253414264036426E-3</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="16">
+      <c r="A11" s="31">
         <v>43914.393750000003</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C11">
         <v>58.734999999999999</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="32">
         <v>30</v>
       </c>
       <c r="E11">
@@ -1380,850 +1384,848 @@
       <c r="J11">
         <v>1431</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11">
         <v>1461.48</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11">
         <v>19282</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11">
         <v>18329</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11">
         <v>161</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="25">
         <f>I11/E11</f>
         <v>8.0468520032706454</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="26">
         <f>I11/E11/C11*1000</f>
         <v>137.00267307858425</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="30">
         <f>J11/I11</f>
         <v>7.2703809456067792E-4</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="28">
         <f>N11/E11</f>
         <v>7.4934587080948481E-2</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="28">
         <f>N11/E11/C11*1000</f>
         <v>1.2758080715237674</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="29">
         <f>O11/N11</f>
         <v>8.7838943750340997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="19">
+      <c r="A12" s="31">
         <v>43900.826388888898</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12">
         <v>68.754000000000005</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="32">
         <v>33.5</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12">
         <v>207500</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12">
         <v>661.98</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12">
         <v>180741</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12">
         <v>1826434</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12">
         <v>1378</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12">
         <v>1461.55</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12">
         <v>4.33</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12">
         <v>17686</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12">
         <v>16916</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12">
         <v>152</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="10">
+      <c r="Q12" s="25">
         <f>I12/E12</f>
         <v>8.8020915662650605</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="26">
         <f>I12/E12/C12*1000</f>
         <v>128.02297417263082</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="30">
         <f>J12/I12</f>
         <v>7.5447566131598516E-4</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="28">
         <f>N12/E12</f>
         <v>8.1522891566265063E-2</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="28">
         <f>N12/E12/C12*1000</f>
         <v>1.1857185264314085</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="29">
         <f>O12/N12</f>
         <v>8.9855757862378812E-3</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="19">
+      <c r="A13" s="31">
         <v>44250.394444444399</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13">
         <v>73.268000000000001</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="32">
         <v>34</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13">
         <v>309882</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13">
         <v>661.87</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13">
         <v>2.27</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13">
         <v>2838596</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13">
         <v>2816273</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13">
         <v>1712</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13">
         <v>1461.3</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13">
         <v>4.4800000000000004</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13">
         <v>27158</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13">
         <v>26140</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13">
         <v>185</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="10">
+      <c r="Q13" s="25">
         <f>I13/E13</f>
         <v>9.0882109964438076</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="26">
         <f>I13/E13/C13*1000</f>
         <v>124.04065890216475</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="30">
         <f>J13/I13</f>
         <v>6.078956123926906E-4</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="28">
         <f>N13/E13</f>
         <v>8.4354689849684722E-2</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="28">
         <f>N13/E13/C13*1000</f>
         <v>1.1513169439548605</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="29">
         <f>O13/N13</f>
         <v>7.0772762050497319E-3</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="20">
+      <c r="A14" s="33">
         <v>44244.395833333299</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="34">
         <v>80.89</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="32">
         <v>40</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="35">
         <v>162400</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="36">
         <v>661.95</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="36">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="36">
         <v>1503571</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="36">
         <v>1492033</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="36">
         <v>1245</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14">
         <v>1461.48</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14">
         <v>4.42</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14">
         <v>14360</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14">
         <v>13828</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14">
         <v>134</v>
       </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="10">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="25">
         <f>I14/E14</f>
         <v>9.1873953201970444</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="26">
         <f>I14/E14/C14*1000</f>
         <v>113.57887650138515</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="30">
         <f>J14/I14</f>
         <v>8.3443194621030505E-4</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="28">
         <f>N14/E14</f>
         <v>8.5147783251231526E-2</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="28">
         <f>N14/E14/C14*1000</f>
         <v>1.0526367072719931</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="29">
         <f>O14/N14</f>
         <v>9.6904830778131324E-3</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="16">
+      <c r="A15" s="31">
         <v>44292.353472222203</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15">
         <v>31.154</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="32">
         <v>17.5</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15">
         <v>407000</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15">
         <v>661.95</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15">
         <v>2.25</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15">
         <v>2182259</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15">
         <v>2164289</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15">
         <v>1502</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15">
         <v>1461.56</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15">
         <v>22275</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15">
         <v>20927</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15">
         <v>178</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="25">
         <f>I15/E15</f>
         <v>5.317663390663391</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="26">
         <f>I15/E15/C15*1000</f>
         <v>170.68958691222286</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="30">
         <f>J15/I15</f>
         <v>6.9399234575419453E-4</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="28">
         <f>N15/E15</f>
         <v>5.1417690417690419E-2</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="28">
         <f>N15/E15/C15*1000</f>
         <v>1.6504362334753298</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="29">
         <f>O15/N15</f>
         <v>8.5057581115305578E-3</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="16">
+      <c r="A16" s="31">
         <v>44295.577777777798</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16">
         <v>43.481000000000002</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="32">
         <v>23.5</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16">
         <v>240300</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16">
         <v>661.98</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16">
         <v>2.25</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16">
         <v>1615660</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16">
         <v>1603135</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16">
         <v>1291</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16">
         <v>1461.59</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16">
         <v>4.18</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16">
         <v>15522</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16">
         <v>14734</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16">
         <v>145</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="25">
         <f>I16/E16</f>
         <v>6.6713899292550982</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="26">
         <f>I16/E16/C16*1000</f>
         <v>153.43230213783258</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="30">
         <f>J16/I16</f>
         <v>8.0529712095363151E-4</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="28">
         <f>N16/E16</f>
         <v>6.1315022888056597E-2</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="28">
         <f>N16/E16/C16*1000</f>
         <v>1.4101566865540487</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="29">
         <f>O16/N16</f>
         <v>9.841183656848107E-3</v>
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="16">
+      <c r="A17" s="31">
         <v>44298.489583333299</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17">
         <v>36.802</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="32">
         <v>19.5</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17">
         <v>251000</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17">
         <v>661.95</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17">
         <v>2.25</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17">
         <v>1519453</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17">
         <v>1506922</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17">
         <v>1253</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17">
         <v>1461.53</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17">
         <v>4.26</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17">
         <v>15020</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17">
         <v>14314</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17">
         <v>141</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="25">
         <f>I17/E17</f>
         <v>6.0036733067729084</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="26">
         <f>I17/E17/C17*1000</f>
         <v>163.13443037804763</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="30">
         <f>J17/I17</f>
         <v>8.3149625528063163E-4</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="28">
         <f>N17/E17</f>
         <v>5.702788844621514E-2</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="28">
         <f>N17/E17/C17*1000</f>
         <v>1.5495866650240513</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="29">
         <f>O17/N17</f>
         <v>9.8504960178845882E-3</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="16">
+      <c r="A18" s="31">
         <v>44301.759722222203</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18">
         <v>37.835000000000001</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="32">
         <v>20.5</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18">
         <v>249400</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18">
         <v>661.96</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18">
         <v>1527986</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18">
         <v>1515887</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18">
         <v>1256</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18">
         <v>1461.5</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18">
         <v>4.33</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18">
         <v>15299</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18">
         <v>14566</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18">
         <v>143</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="25">
         <f>I18/E18</f>
         <v>6.0781355252606257</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="26">
         <f>I18/E18/C18*1000</f>
         <v>160.64848751845184</v>
       </c>
-      <c r="S18" s="15">
+      <c r="S18" s="30">
         <f>J18/I18</f>
         <v>8.2855780147200948E-4</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="28">
         <f>N18/E18</f>
         <v>5.8404170008019243E-2</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="28">
         <f>N18/E18/C18*1000</f>
         <v>1.5436545528748311</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="29">
         <f>O18/N18</f>
         <v>9.8173829465879447E-3</v>
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="16">
+      <c r="A19" s="31">
         <v>44304.560416666704</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19">
         <v>42.381999999999998</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="32">
         <v>22.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="32">
         <v>241500</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="37">
         <v>662.02</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="37">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="37">
         <v>1612475</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="37">
         <v>1600006</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="37">
         <v>1290</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="37">
         <v>1461.67</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="37">
         <v>4.33</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="37">
         <v>16056</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="37">
         <v>15213</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="37">
         <v>148</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="25">
         <f>I19/E19</f>
         <v>6.6252836438923399</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="26">
         <f>I19/E19/C19*1000</f>
         <v>156.32305327479449</v>
       </c>
-      <c r="S19" s="15">
+      <c r="S19" s="30">
         <f>J19/I19</f>
         <v>8.062469765738379E-4</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="28">
         <f>N19/E19</f>
         <v>6.2993788819875773E-2</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="28">
         <f>N19/E19/C19*1000</f>
         <v>1.4863335571675658</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="29">
         <f>O19/N19</f>
         <v>9.728521659107342E-3</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="16">
+      <c r="A20" s="31">
         <v>44306.593055555597</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20">
         <v>33.32</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="32">
         <v>20</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="38">
         <v>73000</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20">
         <v>661.97</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20">
         <v>408447</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20">
         <v>405185</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20">
         <v>649</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20">
         <v>1461.46</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20">
         <v>4.38</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20">
         <v>3981</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20">
         <v>3798</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20">
         <v>72</v>
       </c>
       <c r="P20" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="39">
         <f>I20/E20</f>
         <v>5.5504794520547946</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="40">
         <f>I20/E20/C20*1000</f>
         <v>166.58101596803104</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="41">
         <f>J20/I20</f>
         <v>1.6017374779421745E-3</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="42">
         <f>N20/E20</f>
         <v>5.2027397260273972E-2</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="42">
         <f>N20/E20/C20*1000</f>
         <v>1.5614464964067818</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="43">
         <f>O20/N20</f>
         <v>1.8957345971563982E-2</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="16">
+      <c r="A21" s="31">
         <v>44307.351388888899</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21">
         <v>46.83</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="32">
         <v>25</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="38">
         <v>65400</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21">
         <v>661.97</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21">
         <v>2.25</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21">
         <v>466677</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21">
         <v>462884</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21">
         <v>694</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21">
         <v>1461.4</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21">
         <v>4.46</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21">
         <v>4488</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21">
         <v>4360</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21">
         <v>73</v>
       </c>
       <c r="P21" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="39">
         <f>I21/E21</f>
         <v>7.0777370030581039</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="40">
         <f>I21/E21/C21*1000</f>
         <v>151.1368140734167</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="41">
         <f>J21/I21</f>
         <v>1.4992957198779824E-3</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="42">
         <f>N21/E21</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="42">
         <f>N21/E21/C21*1000</f>
         <v>1.4235888675350559</v>
       </c>
-      <c r="V21" s="30">
+      <c r="V21" s="43">
         <f>O21/N21</f>
         <v>1.6743119266055047E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="16">
+      <c r="A22" s="31">
         <v>44308.356249999997</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22">
         <v>25.041</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="32">
         <v>14.5</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="38">
         <v>49200</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22">
         <v>661.93</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22">
         <v>2.25</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22">
         <v>221903</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22">
         <v>219905</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22">
         <v>479</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22">
         <v>1461.42</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22">
         <v>2286</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22">
         <v>2130</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22">
         <v>58</v>
       </c>
       <c r="P22" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="39">
         <f>I22/E22</f>
         <v>4.4696138211382115</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="40">
         <f>I22/E22/C22*1000</f>
         <v>178.49182625047769</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="41">
         <f>J22/I22</f>
         <v>2.1782133193879176E-3</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="42">
         <f>N22/E22</f>
         <v>4.3292682926829265E-2</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="42">
         <f>N22/E22/C22*1000</f>
         <v>1.7288719670472132</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="43">
         <f>O22/N22</f>
         <v>2.7230046948356807E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="16">
+      <c r="A23" s="31">
         <v>44307.784722222197</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C23">
         <v>55.085000000000001</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="32">
         <v>27.5</v>
       </c>
       <c r="E23">
@@ -2262,42 +2264,42 @@
       <c r="P23" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="39">
         <f>I23/E23</f>
         <v>7.8262087912087912</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="40">
         <f>I23/E23/C23*1000</f>
         <v>142.07513463209207</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="41">
         <f>J23/I23</f>
         <v>1.9096161811888765E-3</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="42">
         <f>N23/E23</f>
         <v>7.008241758241758E-2</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="42">
         <f>N23/E23/C23*1000</f>
         <v>1.2722595549136351</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="43">
         <f>O23/N23</f>
         <v>2.3520188161505293E-2</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="16">
+      <c r="A24" s="31">
         <v>44309.539583333302</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C24">
         <v>14.555</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="32">
         <v>10.5</v>
       </c>
       <c r="E24">
@@ -2336,42 +2338,42 @@
       <c r="P24" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="39">
         <f>I24/E24</f>
         <v>2.8384374999999999</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="40">
         <f>I24/E24/C24*1000</f>
         <v>195.01459979388528</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="41">
         <f>J24/I24</f>
         <v>4.7781569965870303E-3</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="42">
         <f>N24/E24</f>
         <v>2.9062500000000002E-2</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="42">
         <f>N24/E24/C24*1000</f>
         <v>1.9967365166609412</v>
       </c>
-      <c r="V24" s="30">
+      <c r="V24" s="43">
         <f>O24/N24</f>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="16">
+      <c r="A25" s="31">
         <v>44308.625</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C25">
         <v>65.659000000000006</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="32">
         <v>31.5</v>
       </c>
       <c r="E25">
@@ -2410,42 +2412,42 @@
       <c r="P25" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="39">
         <f>I25/E25</f>
         <v>8.7140178571428564</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="40">
         <f>I25/E25/C25*1000</f>
         <v>132.71627434385013</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="41">
         <f>J25/I25</f>
         <v>2.3053987315183868E-3</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="42">
         <f>N25/E25</f>
         <v>8.1517857142857142E-2</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="42">
         <f>N25/E25/C25*1000</f>
         <v>1.2415336380824735</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="43">
         <f>O25/N25</f>
         <v>2.628696604600219E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="16">
+      <c r="A26" s="31">
         <v>44310.691666666702</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C26">
         <v>7.8019999999999996</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="32">
         <v>6.5</v>
       </c>
       <c r="E26">
@@ -2484,42 +2486,42 @@
       <c r="P26" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="39">
         <f>I26/E26</f>
         <v>1.625</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="40">
         <f>I26/E26/C26*1000</f>
         <v>208.27992822353244</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="41">
         <f>J26/I26</f>
         <v>2.807411566535654E-3</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="42">
         <f>N26/E26</f>
         <v>1.9549878345498782E-2</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="42">
         <f>N26/E26/C26*1000</f>
         <v>2.5057521591257093</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="43">
         <f>O26/N26</f>
         <v>3.7336652146857496E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="16">
+      <c r="A27" s="31">
         <v>44309.734722222202</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C27">
         <v>72.277000000000001</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="32">
         <v>34.5</v>
       </c>
       <c r="E27">
@@ -2558,42 +2560,42 @@
       <c r="P27" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="39">
         <f>I27/E27</f>
         <v>9.1288</v>
       </c>
-      <c r="R27" s="27">
+      <c r="R27" s="40">
         <f>I27/E27/C27*1000</f>
         <v>126.30297328334048</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="41">
         <f>J27/I27</f>
         <v>2.760494259924634E-3</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="42">
         <f>N27/E27</f>
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="42">
         <f>N27/E27/C27*1000</f>
         <v>1.1234555944491331</v>
       </c>
-      <c r="V27" s="30">
+      <c r="V27" s="43">
         <f>O27/N27</f>
         <v>3.3661740558292283E-2</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="16">
+      <c r="A28" s="31">
         <v>44311.537499999999</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C28">
         <v>4.8070000000000004</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="32">
         <v>5</v>
       </c>
       <c r="E28">
@@ -2632,42 +2634,42 @@
       <c r="P28" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="39">
         <f>I28/E28</f>
         <v>0.99802777777777774</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="40">
         <f>I28/E28/C28*1000</f>
         <v>207.61967501097934</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="41">
         <f>J28/I28</f>
         <v>3.8687411283364415E-3</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="42">
         <f>N28/E28</f>
         <v>1.2263888888888888E-2</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="42">
         <f>N28/E28/C28*1000</f>
         <v>2.5512562697917383</v>
       </c>
-      <c r="V28" s="30">
+      <c r="V28" s="43">
         <f>O28/N28</f>
         <v>6.9082672706681766E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="16">
+      <c r="A29" s="31">
         <v>44312.352083333302</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C29">
         <v>75.233999999999995</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="32">
         <v>35.5</v>
       </c>
       <c r="E29">
@@ -2706,42 +2708,42 @@
       <c r="P29" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="39">
         <f>I29/E29</f>
         <v>9.3515142857142859</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="40">
         <f>I29/E29/C29*1000</f>
         <v>124.29904412518657</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="41">
         <f>J29/I29</f>
         <v>1.2587724524370384E-3</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="42">
         <f>N29/E29</f>
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="U29" s="29">
+      <c r="U29" s="42">
         <f>N29/E29/C29*1000</f>
         <v>1.1537336842385093</v>
       </c>
-      <c r="V29" s="30">
+      <c r="V29" s="43">
         <f>O29/N29</f>
         <v>1.4647794601711653E-2</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="16">
+      <c r="A30" s="31">
         <v>44312.579166666699</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C30">
         <v>1.63</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="32">
         <v>2</v>
       </c>
       <c r="E30">
@@ -2780,42 +2782,42 @@
       <c r="P30" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="39">
         <f>I30/E30</f>
         <v>0.34311827956989249</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="40">
         <f>I30/E30/C30*1000</f>
         <v>210.50201200606901</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="41">
         <f>J30/I30</f>
         <v>1.3318708868693199E-2</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="42">
         <f>N30/E30</f>
         <v>1.0376344086021505E-2</v>
       </c>
-      <c r="U30" s="29">
+      <c r="U30" s="42">
         <f>N30/E30/C30*1000</f>
         <v>6.3658552674978566</v>
       </c>
-      <c r="V30" s="30">
+      <c r="V30" s="43">
         <f>O30/N30</f>
         <v>0.11398963730569948</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="16">
+      <c r="A31" s="31">
         <v>44312.734027777798</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C31">
         <v>78.38</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="32">
         <v>36.5</v>
       </c>
       <c r="E31">
@@ -2854,42 +2856,42 @@
       <c r="P31" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="39">
         <f>I31/E31</f>
         <v>9.5768181818181812</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="40">
         <f>I31/E31/C31*1000</f>
         <v>122.18446264121181</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="41">
         <f>J31/I31</f>
         <v>2.8636068789849225E-3</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="42">
         <f>N31/E31</f>
         <v>9.4848484848484849E-2</v>
       </c>
-      <c r="U31" s="29">
+      <c r="U31" s="42">
         <f>N31/E31/C31*1000</f>
         <v>1.2101108043950606</v>
       </c>
-      <c r="V31" s="30">
+      <c r="V31" s="43">
         <f>O31/N31</f>
         <v>2.8753993610223641E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="16">
+      <c r="A32" s="31">
         <v>44313.353472222203</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C32">
         <v>80</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="32">
         <v>37.5</v>
       </c>
       <c r="E32">
@@ -2928,33 +2930,33 @@
       <c r="P32" t="s">
         <v>25</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="39">
         <f>I32/E32</f>
         <v>9.7089615384615389</v>
       </c>
-      <c r="R32" s="27">
+      <c r="R32" s="40">
         <f>I32/E32/C32*1000</f>
         <v>121.36201923076923</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="41">
         <f>J32/I32</f>
         <v>1.4320631613140913E-3</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="42">
         <f>N32/E32</f>
         <v>8.9846153846153839E-2</v>
       </c>
-      <c r="U32" s="29">
+      <c r="U32" s="42">
         <f>N32/E32/C32*1000</f>
         <v>1.1230769230769231</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="43">
         <f>O32/N32</f>
         <v>1.6267123287671232E-2</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="16">
+      <c r="A33" s="31">
         <v>44315.363194444399</v>
       </c>
       <c r="B33" t="s">
@@ -2996,27 +2998,27 @@
       <c r="P33" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="39">
         <f>I33/E33</f>
         <v>3.2390176470588234</v>
       </c>
-      <c r="R33" s="27" t="e">
+      <c r="R33" s="40" t="e">
         <f>I33/E33/C33*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="41">
         <f>J33/I33</f>
         <v>1.37841357128977E-3</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="42">
         <f>N33/E33</f>
         <v>3.4517647058823528E-2</v>
       </c>
-      <c r="U33" s="29" t="e">
+      <c r="U33" s="42" t="e">
         <f>N33/E33/C33*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V33" s="30">
+      <c r="V33" s="43">
         <f>O33/N33</f>
         <v>1.6189502385821404E-2</v>
       </c>
@@ -3028,16 +3030,16 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="16">
+      <c r="A34" s="31">
         <v>44313.3659722222</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C34">
         <v>80</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="32">
         <v>37.5</v>
       </c>
       <c r="E34">
@@ -3076,36 +3078,36 @@
       <c r="P34" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="44">
         <f>I34/E34</f>
         <v>137.49333333333334</v>
       </c>
-      <c r="R34" s="32">
+      <c r="R34" s="45">
         <f>I34/E34/C34*1000</f>
         <v>1718.6666666666667</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="41">
         <f>J34/I34</f>
         <v>4.9941815360744759E-3</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T34" s="42">
         <f>N34/E34</f>
         <v>8.666666666666667E-2</v>
       </c>
-      <c r="U34" s="29">
+      <c r="U34" s="42">
         <f>N34/E34/C34*1000</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="V34" s="30">
+      <c r="V34" s="43">
         <f>O34/N34</f>
         <v>0.19230769230769232</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="16">
+      <c r="A35" s="31">
         <v>44313.373611111099</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="E35">
@@ -3129,36 +3131,36 @@
       <c r="P35" t="s">
         <v>31</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="44">
         <f>I35/E35</f>
         <v>147.38</v>
       </c>
-      <c r="R35" s="27"/>
-      <c r="S35" s="28">
+      <c r="R35" s="40"/>
+      <c r="S35" s="41">
         <f>J35/I35</f>
         <v>4.7948613561315419E-3</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="42">
         <f>N35/E35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="29"/>
-      <c r="V35" s="30" t="e">
+      <c r="U35" s="42"/>
+      <c r="V35" s="43" t="e">
         <f>O35/N35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="16">
+      <c r="A36" s="31">
         <v>44313.381249999999</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C36">
         <v>80</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="32">
         <v>37.5</v>
       </c>
       <c r="E36">
@@ -3197,33 +3199,33 @@
       <c r="P36" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="39">
         <f>I36/E36</f>
         <v>9.7633333333333336</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="40">
         <f>I36/E36/C36*1000</f>
         <v>122.04166666666667</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="41">
         <f>J36/I36</f>
         <v>1.8436326391259816E-2</v>
       </c>
-      <c r="T36" s="29">
+      <c r="T36" s="42">
         <f>N36/E36</f>
         <v>0.73</v>
       </c>
-      <c r="U36" s="29">
+      <c r="U36" s="42">
         <f>N36/E36/C36*1000</f>
         <v>9.125</v>
       </c>
-      <c r="V36" s="30">
+      <c r="V36" s="43">
         <f>O36/N36</f>
         <v>6.3926940639269403E-2</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="16">
+      <c r="A37" s="31">
         <v>44313.381249999999</v>
       </c>
       <c r="B37" t="s">
@@ -3250,27 +3252,27 @@
       <c r="P37" t="s">
         <v>34</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="44">
         <f>I37/E37</f>
         <v>0</v>
       </c>
-      <c r="R37" s="32"/>
-      <c r="S37" s="28" t="e">
+      <c r="R37" s="45"/>
+      <c r="S37" s="41" t="e">
         <f>J37/I37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T37" s="29">
+      <c r="T37" s="42">
         <f>N37/E37</f>
         <v>0.67333333333333334</v>
       </c>
-      <c r="U37" s="29"/>
-      <c r="V37" s="30">
+      <c r="U37" s="42"/>
+      <c r="V37" s="43">
         <f>O37/N37</f>
         <v>6.9306930693069313E-2</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="16">
+      <c r="A38" s="31">
         <v>44340.417361111096</v>
       </c>
       <c r="B38" t="s">
@@ -3279,7 +3281,7 @@
       <c r="C38">
         <v>3.8359999999999999</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E38">
@@ -3315,33 +3317,33 @@
       <c r="O38">
         <v>44</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="Q38" s="39">
         <f>I38/E38</f>
         <v>0.77616161616161616</v>
       </c>
-      <c r="R38" s="27">
+      <c r="R38" s="40">
         <f>I38/E38/C38*1000</f>
         <v>202.33618773764761</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="41">
         <f>J38/I38</f>
         <v>4.8802706923477355E-3</v>
       </c>
-      <c r="T38" s="29">
+      <c r="T38" s="42">
         <f>N38/E38</f>
         <v>1.1952861952861953E-2</v>
       </c>
-      <c r="U38" s="29">
+      <c r="U38" s="42">
         <f>N38/E38/C38*1000</f>
         <v>3.1159702692549409</v>
       </c>
-      <c r="V38" s="30">
+      <c r="V38" s="43">
         <f>O38/N38</f>
         <v>6.1971830985915494E-2</v>
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="16">
+      <c r="A39" s="31">
         <v>44341.357638888898</v>
       </c>
       <c r="B39" t="s">
@@ -3386,33 +3388,33 @@
       <c r="O39">
         <v>44</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="39">
         <f>I39/E39</f>
         <v>1.5886428571428572</v>
       </c>
-      <c r="R39" s="27">
+      <c r="R39" s="40">
         <f>I39/E39/C39*1000</f>
         <v>208.42860891404584</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="41">
         <f>J39/I39</f>
         <v>3.9866312965544113E-3</v>
       </c>
-      <c r="T39" s="29">
+      <c r="T39" s="42">
         <f>N39/E39</f>
         <v>1.8833333333333334E-2</v>
       </c>
-      <c r="U39" s="29">
+      <c r="U39" s="42">
         <f>N39/E39/C39*1000</f>
         <v>2.4709175194612087</v>
       </c>
-      <c r="V39" s="30">
+      <c r="V39" s="43">
         <f>O39/N39</f>
         <v>5.5625790139064477E-2</v>
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="16">
+      <c r="A40" s="31">
         <v>44342.354166666701</v>
       </c>
       <c r="B40" t="s">
@@ -3457,33 +3459,33 @@
       <c r="O40">
         <v>36</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="39">
         <f>I40/E40</f>
         <v>2.0829581151832461</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="40">
         <f>I40/E40/C40*1000</f>
         <v>205.52127431507117</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="41">
         <f>J40/I40</f>
         <v>3.6320677650843922E-3</v>
       </c>
-      <c r="T40" s="29">
+      <c r="T40" s="42">
         <f>N40/E40</f>
         <v>2.494764397905759E-2</v>
       </c>
-      <c r="U40" s="29">
+      <c r="U40" s="42">
         <f>N40/E40/C40*1000</f>
         <v>2.4615336930495895</v>
       </c>
-      <c r="V40" s="30">
+      <c r="V40" s="43">
         <f>O40/N40</f>
         <v>3.7775445960125921E-2</v>
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="16">
+      <c r="A41" s="31">
         <v>44343.360416666699</v>
       </c>
       <c r="B41" t="s">
@@ -3492,7 +3494,7 @@
       <c r="C41">
         <v>19.242000000000001</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E41">
@@ -3528,33 +3530,33 @@
       <c r="O41">
         <v>54</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="39">
         <f>I41/E41</f>
         <v>3.6360285132382892</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="40">
         <f>I41/E41/C41*1000</f>
         <v>188.96312822150969</v>
       </c>
-      <c r="S41" s="28">
+      <c r="S41" s="41">
         <f>J41/I41</f>
         <v>2.4197749385253937E-3</v>
       </c>
-      <c r="T41" s="29">
+      <c r="T41" s="42">
         <f>N41/E41</f>
         <v>3.7087576374745419E-2</v>
       </c>
-      <c r="U41" s="29">
+      <c r="U41" s="42">
         <f>N41/E41/C41*1000</f>
         <v>1.9274283533284178</v>
       </c>
-      <c r="V41" s="30">
+      <c r="V41" s="43">
         <f>O41/N41</f>
         <v>2.9654036243822075E-2</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="16">
+      <c r="A42" s="31">
         <v>44344.756249999999</v>
       </c>
       <c r="B42" t="s">
@@ -3563,7 +3565,7 @@
       <c r="C42">
         <v>24.771999999999998</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="46" t="s">
         <v>40</v>
       </c>
       <c r="E42">
@@ -3599,27 +3601,27 @@
       <c r="O42">
         <v>45</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="Q42" s="47">
         <f>I42/E42</f>
         <v>4.5107142857142861</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="48">
         <f>I42/E42/C42*1000</f>
         <v>182.08922516204933</v>
       </c>
-      <c r="S42" s="37">
+      <c r="S42" s="49">
         <f>J42/I42</f>
         <v>2.7975719187120613E-3</v>
       </c>
-      <c r="T42" s="38">
+      <c r="T42" s="50">
         <f>N42/E42</f>
         <v>4.3129251700680271E-2</v>
       </c>
-      <c r="U42" s="38">
+      <c r="U42" s="50">
         <f>N42/E42/C42*1000</f>
         <v>1.7410484297061311</v>
       </c>
-      <c r="V42" s="39">
+      <c r="V42" s="51">
         <f>O42/N42</f>
         <v>3.5488958990536279E-2</v>
       </c>
@@ -3667,27 +3669,27 @@
       <c r="O44">
         <v>108</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="Q44" s="39">
         <f>I44/E44</f>
         <v>0.6795528455284553</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="40">
         <f>I44/E44/C44*1000</f>
         <v>175.45903576773955</v>
       </c>
-      <c r="S44" s="28">
+      <c r="S44" s="41">
         <f>J44/I44</f>
         <v>2.1663148719438725E-3</v>
       </c>
-      <c r="T44" s="29">
+      <c r="T44" s="42">
         <f>N44/E44</f>
         <v>1.1144018583042974E-2</v>
       </c>
-      <c r="U44" s="29">
+      <c r="U44" s="42">
         <f>N44/E44/C44*1000</f>
         <v>2.8773608528383612</v>
       </c>
-      <c r="V44" s="30">
+      <c r="V44" s="43">
         <f>O44/N44</f>
         <v>2.8139656070870246E-2</v>
       </c>
@@ -3738,27 +3740,27 @@
       <c r="P45" t="s">
         <v>43</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="39">
         <f>I45/E45</f>
         <v>0.87402552204176331</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="40">
         <f>I45/E45/C45*1000</f>
         <v>157.14230888920591</v>
       </c>
-      <c r="S45" s="28">
+      <c r="S45" s="41">
         <f>J45/I45</f>
         <v>2.6944160550032518E-3</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="42">
         <f>N45/E45</f>
         <v>1.3172853828306264E-2</v>
       </c>
-      <c r="U45" s="29">
+      <c r="U45" s="42">
         <f>N45/E45/C45*1000</f>
         <v>2.3683663840895832</v>
       </c>
-      <c r="V45" s="30">
+      <c r="V45" s="43">
         <f>O45/N45</f>
         <v>3.4786437692646409E-2</v>
       </c>
@@ -3809,27 +3811,27 @@
       <c r="P46" t="s">
         <v>44</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="39">
         <f>I46/E46</f>
         <v>0.76103286384976521</v>
       </c>
-      <c r="R46" s="27">
+      <c r="R46" s="40">
         <f>I46/E46/C46*1000</f>
         <v>166.05561070254532</v>
       </c>
-      <c r="S46" s="28">
+      <c r="S46" s="41">
         <f>J46/I46</f>
         <v>8.2048118445404074E-3</v>
       </c>
-      <c r="T46" s="29">
+      <c r="T46" s="42">
         <f>N46/E46</f>
         <v>1.1596244131455399E-2</v>
       </c>
-      <c r="U46" s="29">
+      <c r="U46" s="42">
         <f>N46/E46/C46*1000</f>
         <v>2.5302736485828929</v>
       </c>
-      <c r="V46" s="30">
+      <c r="V46" s="43">
         <f>O46/N46</f>
         <v>0.10931174089068826</v>
       </c>
@@ -3880,27 +3882,27 @@
       <c r="P47" t="s">
         <v>45</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="39">
         <f>I47/E47</f>
         <v>0.75350808408946646</v>
       </c>
-      <c r="R47" s="27">
+      <c r="R47" s="40">
         <f>I47/E47/C47*1000</f>
         <v>164.41372116287727</v>
       </c>
-      <c r="S47" s="28">
+      <c r="S47" s="41">
         <f>J47/I47</f>
         <v>2.3290732766096623E-3</v>
       </c>
-      <c r="T47" s="29">
+      <c r="T47" s="42">
         <f>N47/E47</f>
         <v>1.1448414921026101E-2</v>
       </c>
-      <c r="U47" s="29">
+      <c r="U47" s="42">
         <f>N47/E47/C47*1000</f>
         <v>2.4980176567807333</v>
       </c>
-      <c r="V47" s="30">
+      <c r="V47" s="43">
         <f>O47/N47</f>
         <v>3.1963470319634701E-2</v>
       </c>
@@ -3951,27 +3953,27 @@
       <c r="P48" t="s">
         <v>43</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="39">
         <f>I48/E48</f>
         <v>0.64148637820512822</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="40">
         <f>I48/E48/C48*1000</f>
         <v>216.79161142451105</v>
       </c>
-      <c r="S48" s="28">
+      <c r="S48" s="41">
         <f>J48/I48</f>
         <v>2.6231146363551198E-3</v>
       </c>
-      <c r="T48" s="29">
+      <c r="T48" s="42">
         <f>N48/E48</f>
         <v>1.0184294871794872E-2</v>
       </c>
-      <c r="U48" s="29">
+      <c r="U48" s="42">
         <f>N48/E48/C48*1000</f>
         <v>3.4418029306505145</v>
       </c>
-      <c r="V48" s="30">
+      <c r="V48" s="43">
         <f>O48/N48</f>
         <v>3.7372147915027534E-2</v>
       </c>
@@ -4019,27 +4021,27 @@
       <c r="O49">
         <v>64</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="Q49" s="39">
         <f>I49/E49</f>
         <v>0.70961352657004828</v>
       </c>
-      <c r="R49" s="27">
+      <c r="R49" s="40">
         <f>I49/E49/C49*1000</f>
         <v>189.12940473615362</v>
       </c>
-      <c r="S49" s="28">
+      <c r="S49" s="41">
         <f>J49/I49</f>
         <v>3.8532235005786643E-3</v>
       </c>
-      <c r="T49" s="29">
+      <c r="T49" s="42">
         <f>N49/E49</f>
         <v>1.1178743961352657E-2</v>
       </c>
-      <c r="U49" s="29">
+      <c r="U49" s="42">
         <f>N49/E49/C49*1000</f>
         <v>2.9794093713626486</v>
       </c>
-      <c r="V49" s="30">
+      <c r="V49" s="43">
         <f>O49/N49</f>
         <v>5.5315471045808126E-2</v>
       </c>
@@ -4090,27 +4092,27 @@
       <c r="P50" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="Q50" s="39">
         <f>I50/E50</f>
         <v>0.56296551724137933</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="40">
         <f>I50/E50/C50*1000</f>
         <v>242.65755053507732</v>
       </c>
-      <c r="S50" s="28">
+      <c r="S50" s="41">
         <f>J50/I50</f>
         <v>4.1498223692269997E-3</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T50" s="42">
         <f>N50/E50</f>
         <v>1.0413793103448275E-2</v>
       </c>
-      <c r="U50" s="29">
+      <c r="U50" s="42">
         <f>N50/E50/C50*1000</f>
         <v>4.4887039239001192</v>
       </c>
-      <c r="V50" s="30">
+      <c r="V50" s="43">
         <f>O50/N50</f>
         <v>5.4635761589403975E-2</v>
       </c>
@@ -4158,27 +4160,27 @@
       <c r="O51">
         <v>70</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="Q51" s="39">
         <f>I51/E51</f>
         <v>0.63197642163661583</v>
       </c>
-      <c r="R51" s="27">
+      <c r="R51" s="40">
         <f>I51/E51/C51*1000</f>
         <v>215.32416410106163</v>
       </c>
-      <c r="S51" s="28">
+      <c r="S51" s="41">
         <f>J51/I51</f>
         <v>3.4785089596295442E-3</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T51" s="42">
         <f>N51/E51</f>
         <v>1.0686546463245492E-2</v>
       </c>
-      <c r="U51" s="29">
+      <c r="U51" s="42">
         <f>N51/E51/C51*1000</f>
         <v>3.6410720488059596</v>
       </c>
-      <c r="V51" s="30">
+      <c r="V51" s="43">
         <f>O51/N51</f>
         <v>4.5425048669695003E-2</v>
       </c>
@@ -4226,27 +4228,27 @@
       <c r="O52">
         <v>73</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="Q52" s="39">
         <f>I52/E52</f>
         <v>0.48723753280839893</v>
       </c>
-      <c r="R52" s="27">
+      <c r="R52" s="40">
         <f>I52/E52/C52*1000</f>
         <v>256.84635361539216</v>
       </c>
-      <c r="S52" s="28">
+      <c r="S52" s="41">
         <f>J52/I52</f>
         <v>3.8919938051309678E-3</v>
       </c>
-      <c r="T52" s="29">
+      <c r="T52" s="42">
         <f>N52/E52</f>
         <v>8.9041994750656168E-3</v>
       </c>
-      <c r="U52" s="29">
+      <c r="U52" s="42">
         <f>N52/E52/C52*1000</f>
         <v>4.6938320901769197</v>
       </c>
-      <c r="V52" s="30">
+      <c r="V52" s="43">
         <f>O52/N52</f>
         <v>5.3795136330140013E-2</v>
       </c>
@@ -4294,27 +4296,27 @@
       <c r="O53">
         <v>54</v>
       </c>
-      <c r="Q53" s="26">
+      <c r="Q53" s="39">
         <f>I53/E53</f>
         <v>0.27901639344262297</v>
       </c>
-      <c r="R53" s="27">
+      <c r="R53" s="40">
         <f>I53/E53/C53*1000</f>
         <v>300.34057421165011</v>
       </c>
-      <c r="S53" s="28">
+      <c r="S53" s="41">
         <f>J53/I53</f>
         <v>7.0924962229310055E-3</v>
       </c>
-      <c r="T53" s="29">
+      <c r="T53" s="42">
         <f>N53/E53</f>
         <v>7.1194379391100703E-3</v>
       </c>
-      <c r="U53" s="29">
+      <c r="U53" s="42">
         <f>N53/E53/C53*1000</f>
         <v>7.6635499882777935</v>
       </c>
-      <c r="V53" s="30">
+      <c r="V53" s="43">
         <f>O53/N53</f>
         <v>8.8815789473684209E-2</v>
       </c>
@@ -4362,27 +4364,27 @@
       <c r="O54">
         <v>52</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="39">
         <f>I54/E54</f>
         <v>0.39659302325581397</v>
       </c>
-      <c r="R54" s="27">
+      <c r="R54" s="40">
         <f>I54/E54/C54*1000</f>
         <v>281.07230563842239</v>
       </c>
-      <c r="S54" s="28">
+      <c r="S54" s="41">
         <f>J54/I54</f>
         <v>5.7173014337232823E-3</v>
       </c>
-      <c r="T54" s="29">
+      <c r="T54" s="42">
         <f>N54/E54</f>
         <v>8.6860465116279078E-3</v>
       </c>
-      <c r="U54" s="29">
+      <c r="U54" s="42">
         <f>N54/E54/C54*1000</f>
         <v>6.1559507523939816</v>
       </c>
-      <c r="V54" s="30">
+      <c r="V54" s="43">
         <f>O54/N54</f>
         <v>6.9611780455153954E-2</v>
       </c>
@@ -4430,27 +4432,27 @@
       <c r="O55">
         <v>56</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q55" s="39">
         <f>I55/E55</f>
         <v>0.66538004750593827</v>
       </c>
-      <c r="R55" s="27">
+      <c r="R55" s="40">
         <f>I55/E55/C55*1000</f>
         <v>208.06130316008077</v>
       </c>
-      <c r="S55" s="28">
+      <c r="S55" s="41">
         <f>J55/I55</f>
         <v>4.4444444444444444E-3</v>
       </c>
-      <c r="T55" s="29">
+      <c r="T55" s="42">
         <f>N55/E55</f>
         <v>1.1662707838479809E-2</v>
       </c>
-      <c r="U55" s="29">
+      <c r="U55" s="42">
         <f>N55/E55/C55*1000</f>
         <v>3.6468754967103845</v>
       </c>
-      <c r="V55" s="30">
+      <c r="V55" s="43">
         <f>O55/N55</f>
         <v>5.7026476578411409E-2</v>
       </c>
@@ -4498,27 +4500,27 @@
       <c r="O56">
         <v>57</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q56" s="39">
         <f>I56/E56</f>
         <v>0.80042452830188682</v>
       </c>
-      <c r="R56" s="27">
+      <c r="R56" s="40">
         <f>I56/E56/C56*1000</f>
         <v>178.8258552953277</v>
       </c>
-      <c r="S56" s="28">
+      <c r="S56" s="41">
         <f>J56/I56</f>
         <v>3.9778419470799693E-3</v>
       </c>
-      <c r="T56" s="29">
+      <c r="T56" s="42">
         <f>N56/E56</f>
         <v>1.1875E-2</v>
       </c>
-      <c r="U56" s="29">
+      <c r="U56" s="42">
         <f>N56/E56/C56*1000</f>
         <v>2.6530384271671137</v>
       </c>
-      <c r="V56" s="30">
+      <c r="V56" s="43">
         <f>O56/N56</f>
         <v>5.6603773584905662E-2</v>
       </c>
@@ -4566,27 +4568,27 @@
       <c r="O57">
         <v>37</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="39">
         <f>I57/E57</f>
         <v>0.84262886597938147</v>
       </c>
-      <c r="R57" s="27">
+      <c r="R57" s="40">
         <f>I57/E57/C57*1000</f>
         <v>165.51342879186436</v>
       </c>
-      <c r="S57" s="28">
+      <c r="S57" s="41">
         <f>J57/I57</f>
         <v>5.7808772251789322E-3</v>
       </c>
-      <c r="T57" s="29">
+      <c r="T57" s="42">
         <f>N57/E57</f>
         <v>1.2525773195876288E-2</v>
       </c>
-      <c r="U57" s="29">
+      <c r="U57" s="42">
         <f>N57/E57/C57*1000</f>
         <v>2.4603757996221343</v>
       </c>
-      <c r="V57" s="30">
+      <c r="V57" s="43">
         <f>O57/N57</f>
         <v>7.6131687242798354E-2</v>
       </c>
@@ -4634,27 +4636,27 @@
       <c r="O58">
         <v>35</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="Q58" s="39">
         <f>I58/E58</f>
         <v>0.76565400843881859</v>
       </c>
-      <c r="R58" s="27">
+      <c r="R58" s="40">
         <f>I58/E58/C58*1000</f>
         <v>177.35788937660843</v>
       </c>
-      <c r="S58" s="28">
+      <c r="S58" s="41">
         <f>J58/I58</f>
         <v>5.5108563870825524E-3</v>
       </c>
-      <c r="T58" s="29">
+      <c r="T58" s="42">
         <f>N58/E58</f>
         <v>1.2742616033755275E-2</v>
       </c>
-      <c r="U58" s="29">
+      <c r="U58" s="42">
         <f>N58/E58/C58*1000</f>
         <v>2.9517294495611011</v>
       </c>
-      <c r="V58" s="30">
+      <c r="V58" s="43">
         <f>O58/N58</f>
         <v>5.7947019867549666E-2</v>
       </c>
@@ -4702,27 +4704,27 @@
       <c r="O59">
         <v>31</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="39">
         <f>I59/E59</f>
         <v>0.58155080213903743</v>
       </c>
-      <c r="R59" s="27">
+      <c r="R59" s="40">
         <f>I59/E59/C59*1000</f>
         <v>226.81388538964018</v>
       </c>
-      <c r="S59" s="28">
+      <c r="S59" s="41">
         <f>J59/I59</f>
         <v>7.0804597701149422E-3</v>
       </c>
-      <c r="T59" s="29">
+      <c r="T59" s="42">
         <f>N59/E59</f>
         <v>1.1122994652406418E-2</v>
       </c>
-      <c r="U59" s="29">
+      <c r="U59" s="42">
         <f>N59/E59/C59*1000</f>
         <v>4.3381414400961065</v>
       </c>
-      <c r="V59" s="30">
+      <c r="V59" s="43">
         <f>O59/N59</f>
         <v>7.4519230769230768E-2</v>
       </c>
@@ -4770,33 +4772,33 @@
       <c r="O60">
         <v>52</v>
       </c>
-      <c r="Q60" s="26">
+      <c r="Q60" s="39">
         <f>I60/E60</f>
         <v>0.23309576837416482</v>
       </c>
-      <c r="R60" s="27">
+      <c r="R60" s="40">
         <f>I60/E60/C60*1000</f>
         <v>321.95548117978569</v>
       </c>
-      <c r="S60" s="28">
+      <c r="S60" s="41">
         <f>J60/I60</f>
         <v>7.5960252245365944E-3</v>
       </c>
-      <c r="T60" s="29">
+      <c r="T60" s="42">
         <f>N60/E60</f>
         <v>7.2160356347438755E-3</v>
       </c>
-      <c r="U60" s="29">
+      <c r="U60" s="42">
         <f>N60/E60/C60*1000</f>
         <v>9.9669000479887782</v>
       </c>
-      <c r="V60" s="30">
+      <c r="V60" s="43">
         <f>O60/N60</f>
         <v>8.0246913580246909E-2</v>
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="40">
+      <c r="A62" s="31">
         <v>44337.743055555598</v>
       </c>
       <c r="B62" t="s">
@@ -4838,27 +4840,27 @@
       <c r="P62" t="s">
         <v>46</v>
       </c>
-      <c r="Q62" s="26">
+      <c r="Q62" s="39">
         <f>I62/E62</f>
         <v>2.4174757281553399E-3</v>
       </c>
-      <c r="R62" s="27"/>
-      <c r="S62" s="28">
+      <c r="R62" s="40"/>
+      <c r="S62" s="41">
         <f>J62/I62</f>
         <v>0.21485943775100402</v>
       </c>
-      <c r="T62" s="29">
+      <c r="T62" s="42">
         <f>N62/E62</f>
         <v>4.8786407766990289E-3</v>
       </c>
-      <c r="U62" s="29"/>
-      <c r="V62" s="30">
+      <c r="U62" s="42"/>
+      <c r="V62" s="43">
         <f>O62/N62</f>
         <v>8.3582089552238809E-2</v>
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="40">
+      <c r="A63" s="31">
         <v>44368.427083333299</v>
       </c>
       <c r="B63" t="s">
@@ -4900,27 +4902,27 @@
       <c r="P63" t="s">
         <v>46</v>
       </c>
-      <c r="Q63" s="35">
+      <c r="Q63" s="47">
         <f>I63/E63</f>
         <v>3.426751592356688E-3</v>
       </c>
-      <c r="R63" s="36"/>
-      <c r="S63" s="37">
+      <c r="R63" s="48"/>
+      <c r="S63" s="49">
         <f>J63/I63</f>
         <v>0.16914498141263939</v>
       </c>
-      <c r="T63" s="38">
+      <c r="T63" s="50">
         <f>N63/E63</f>
         <v>4.9044585987261143E-3</v>
       </c>
-      <c r="U63" s="38"/>
-      <c r="V63" s="39">
+      <c r="U63" s="50"/>
+      <c r="V63" s="51">
         <f>O63/N63</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="40">
+      <c r="A64" s="31">
         <v>44382.583333333299</v>
       </c>
       <c r="B64" t="s">
@@ -4962,27 +4964,27 @@
       <c r="P64" t="s">
         <v>46</v>
       </c>
-      <c r="Q64" s="35">
+      <c r="Q64" s="47">
         <f>I64/E64</f>
         <v>4.4877049180327873E-3</v>
       </c>
-      <c r="R64" s="36"/>
-      <c r="S64" s="37">
+      <c r="R64" s="48"/>
+      <c r="S64" s="49">
         <f>J64/I64</f>
         <v>0.1004566210045662</v>
       </c>
-      <c r="T64" s="38">
+      <c r="T64" s="50">
         <f>N64/E64</f>
         <v>6.135245901639344E-3</v>
       </c>
-      <c r="U64" s="38"/>
-      <c r="V64" s="39">
+      <c r="U64" s="50"/>
+      <c r="V64" s="51">
         <f>O64/N64</f>
         <v>5.2104208416833664E-2</v>
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="16">
+      <c r="A66" s="31">
         <v>44353.710416666698</v>
       </c>
       <c r="B66" t="s">
@@ -5027,33 +5029,33 @@
       <c r="O66">
         <v>76</v>
       </c>
-      <c r="Q66" s="26">
+      <c r="Q66" s="39">
         <f>I66/E66</f>
         <v>4.912002840909091</v>
       </c>
-      <c r="R66" s="27">
+      <c r="R66" s="40">
         <f>I66/E66/C66*1000</f>
         <v>170.87604678595599</v>
       </c>
-      <c r="S66" s="28">
+      <c r="S66" s="41">
         <f>J66/I66</f>
         <v>1.732190107141308E-3</v>
       </c>
-      <c r="T66" s="29">
+      <c r="T66" s="42">
         <f>N66/E66</f>
         <v>4.5028409090909091E-2</v>
       </c>
-      <c r="U66" s="29">
+      <c r="U66" s="42">
         <f>N66/E66/C66*1000</f>
         <v>1.5664234707753806</v>
       </c>
-      <c r="V66" s="30">
+      <c r="V66" s="43">
         <f>O66/N66</f>
         <v>2.3974763406940065E-2</v>
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="16">
+      <c r="A67" s="31">
         <v>44355.370138888902</v>
       </c>
       <c r="B67" t="s">
@@ -5098,33 +5100,33 @@
       <c r="O67">
         <v>50</v>
       </c>
-      <c r="Q67" s="26">
+      <c r="Q67" s="39">
         <f>I67/E67</f>
         <v>3.3345925925925926</v>
       </c>
-      <c r="R67" s="27">
+      <c r="R67" s="40">
         <f>I67/E67/C67*1000</f>
         <v>207.55586907709403</v>
       </c>
-      <c r="S67" s="28">
+      <c r="S67" s="41">
         <f>J67/I67</f>
         <v>2.4046471333051956E-3</v>
       </c>
-      <c r="T67" s="29">
+      <c r="T67" s="42">
         <f>N67/E67</f>
         <v>3.3814814814814811E-2</v>
       </c>
-      <c r="U67" s="29">
+      <c r="U67" s="42">
         <f>N67/E67/C67*1000</f>
         <v>2.1047438575136819</v>
       </c>
-      <c r="V67" s="30">
+      <c r="V67" s="43">
         <f>O67/N67</f>
         <v>2.7382256297918947E-2</v>
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="16">
+      <c r="A68" s="31">
         <v>44357.433333333298</v>
       </c>
       <c r="B68" t="s">
@@ -5169,33 +5171,33 @@
       <c r="O68">
         <v>13</v>
       </c>
-      <c r="Q68" s="26">
+      <c r="Q68" s="39">
         <f>I68/E68</f>
         <v>2.2541176470588233</v>
       </c>
-      <c r="R68" s="27">
+      <c r="R68" s="40">
         <f>I68/E68/C68*1000</f>
         <v>231.66676742639501</v>
       </c>
-      <c r="S68" s="28">
+      <c r="S68" s="41">
         <f>J68/I68</f>
         <v>8.2854906054279746E-3</v>
       </c>
-      <c r="T68" s="29">
+      <c r="T68" s="42">
         <f>N68/E68</f>
         <v>2.7205882352941177E-2</v>
       </c>
-      <c r="U68" s="29">
+      <c r="U68" s="42">
         <f>N68/E68/C68*1000</f>
         <v>2.7960824617616833</v>
       </c>
-      <c r="V68" s="30">
+      <c r="V68" s="43">
         <f>O68/N68</f>
         <v>7.0270270270270274E-2</v>
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="16">
+      <c r="A69" s="31">
         <v>44357.709027777797</v>
       </c>
       <c r="B69" t="s">
@@ -5240,33 +5242,33 @@
       <c r="O69">
         <v>25</v>
       </c>
-      <c r="Q69" s="26">
+      <c r="Q69" s="39">
         <f>I69/E69</f>
         <v>2.2134745762711865</v>
       </c>
-      <c r="R69" s="27">
+      <c r="R69" s="40">
         <f>I69/E69/C69*1000</f>
         <v>227.48967895901194</v>
       </c>
-      <c r="S69" s="28">
+      <c r="S69" s="41">
         <f>J69/I69</f>
         <v>6.3555266281251199E-3</v>
       </c>
-      <c r="T69" s="29">
+      <c r="T69" s="42">
         <f>N69/E69</f>
         <v>2.4491525423728813E-2</v>
       </c>
-      <c r="U69" s="29">
+      <c r="U69" s="42">
         <f>N69/E69/C69*1000</f>
         <v>2.5171146375877504</v>
       </c>
-      <c r="V69" s="30">
+      <c r="V69" s="43">
         <f>O69/N69</f>
         <v>8.6505190311418678E-2</v>
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="16">
+      <c r="A70" s="31">
         <v>44360.662499999999</v>
       </c>
       <c r="B70" t="s">
@@ -5311,33 +5313,33 @@
       <c r="O70">
         <v>85</v>
       </c>
-      <c r="Q70" s="26">
+      <c r="Q70" s="39">
         <f>I70/E70</f>
         <v>1.7668932038834952</v>
       </c>
-      <c r="R70" s="27">
+      <c r="R70" s="40">
         <f>I70/E70/C70*1000</f>
         <v>243.57502121360562</v>
       </c>
-      <c r="S70" s="28">
+      <c r="S70" s="41">
         <f>J70/I70</f>
         <v>1.9060113193032585E-3</v>
       </c>
-      <c r="T70" s="29">
+      <c r="T70" s="42">
         <f>N70/E70</f>
         <v>2.066140776699029E-2</v>
       </c>
-      <c r="U70" s="29">
+      <c r="U70" s="42">
         <f>N70/E70/C70*1000</f>
         <v>2.8482778835112068</v>
       </c>
-      <c r="V70" s="30">
+      <c r="V70" s="43">
         <f>O70/N70</f>
         <v>2.4963289280469897E-2</v>
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="16">
+      <c r="A71" s="31">
         <v>44362.370138888902</v>
       </c>
       <c r="B71" t="s">
@@ -5382,33 +5384,33 @@
       <c r="O71">
         <v>59</v>
       </c>
-      <c r="Q71" s="26">
+      <c r="Q71" s="39">
         <f>I71/E71</f>
         <v>4.7895559845559843</v>
       </c>
-      <c r="R71" s="27">
+      <c r="R71" s="40">
         <f>I71/E71/C71*1000</f>
         <v>184.04380512434614</v>
       </c>
-      <c r="S71" s="28">
+      <c r="S71" s="41">
         <f>J71/I71</f>
         <v>2.0435390710966186E-3</v>
       </c>
-      <c r="T71" s="29">
+      <c r="T71" s="42">
         <f>N71/E71</f>
         <v>4.8957528957528959E-2</v>
       </c>
-      <c r="U71" s="29">
+      <c r="U71" s="42">
         <f>N71/E71/C71*1000</f>
         <v>1.8812453488137471</v>
       </c>
-      <c r="V71" s="30">
+      <c r="V71" s="43">
         <f>O71/N71</f>
         <v>2.3264984227129339E-2</v>
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="16">
+      <c r="A72" s="31">
         <v>44362.868055555598</v>
       </c>
       <c r="B72" t="s">
@@ -5453,33 +5455,33 @@
       <c r="O72">
         <v>40</v>
       </c>
-      <c r="Q72" s="26">
+      <c r="Q72" s="39">
         <f>I72/E72</f>
         <v>5.1604867256637172</v>
       </c>
-      <c r="R72" s="27">
+      <c r="R72" s="40">
         <f>I72/E72/C72*1000</f>
         <v>178.55737606531667</v>
       </c>
-      <c r="S72" s="28">
+      <c r="S72" s="41">
         <f>J72/I72</f>
         <v>2.9838716592212782E-3</v>
       </c>
-      <c r="T72" s="29">
+      <c r="T72" s="42">
         <f>N72/E72</f>
         <v>5.1460176991150443E-2</v>
       </c>
-      <c r="U72" s="29">
+      <c r="U72" s="42">
         <f>N72/E72/C72*1000</f>
         <v>1.7805673503045032</v>
       </c>
-      <c r="V72" s="30">
+      <c r="V72" s="43">
         <f>O72/N72</f>
         <v>3.4393809114359415E-2</v>
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="16">
+      <c r="A73" s="31">
         <v>44369.4243055556</v>
       </c>
       <c r="B73" t="s">
@@ -5527,27 +5529,27 @@
       <c r="P73" t="s">
         <v>48</v>
       </c>
-      <c r="Q73" s="26">
+      <c r="Q73" s="39">
         <f>I73/E73</f>
         <v>5.5362237762237765</v>
       </c>
-      <c r="R73" s="27">
+      <c r="R73" s="40">
         <f>I73/E73/C73*1000</f>
         <v>171.27285534660859</v>
       </c>
-      <c r="S73" s="28">
+      <c r="S73" s="41">
         <f>J73/I73</f>
         <v>1.4799750741040152E-3</v>
       </c>
-      <c r="T73" s="29">
+      <c r="T73" s="42">
         <f>N73/E73</f>
         <v>5.4358974358974362E-2</v>
       </c>
-      <c r="U73" s="29">
+      <c r="U73" s="42">
         <f>N73/E73/C73*1000</f>
         <v>1.6816908290735788</v>
       </c>
-      <c r="V73" s="30">
+      <c r="V73" s="43">
         <f>O73/N73</f>
         <v>1.7152658662092625E-2</v>
       </c>
@@ -5558,7 +5560,7 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="16">
+      <c r="A77" s="31">
         <v>44363.708333333299</v>
       </c>
       <c r="B77" t="s">
@@ -5606,33 +5608,33 @@
       <c r="P77" t="s">
         <v>51</v>
       </c>
-      <c r="Q77" s="26">
+      <c r="Q77" s="39">
         <f>I77/E77</f>
         <v>1.0360775862068965</v>
       </c>
-      <c r="R77" s="27">
+      <c r="R77" s="40">
         <f>I77/E77/C77*1000</f>
         <v>37.909900702777044</v>
       </c>
-      <c r="S77" s="28">
+      <c r="S77" s="41">
         <f>J77/I77</f>
         <v>6.6980072388401219E-3</v>
       </c>
-      <c r="T77" s="29">
+      <c r="T77" s="42">
         <f>N77/E77</f>
         <v>2.564655172413793E-2</v>
       </c>
-      <c r="U77" s="29">
+      <c r="U77" s="42">
         <f>N77/E77/C77*1000</f>
         <v>0.93840291709249668</v>
       </c>
-      <c r="V77" s="30">
+      <c r="V77" s="43">
         <f>O77/N77</f>
         <v>4.7058823529411764E-2</v>
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="16">
+      <c r="A78" s="31">
         <v>44364.6</v>
       </c>
       <c r="B78" t="s">
@@ -5680,33 +5682,33 @@
       <c r="P78" t="s">
         <v>53</v>
       </c>
-      <c r="Q78" s="26">
+      <c r="Q78" s="39">
         <f>I78/E78</f>
         <v>6.1549315068493149</v>
       </c>
-      <c r="R78" s="27">
+      <c r="R78" s="40">
         <f>I78/E78/C78*1000</f>
         <v>317.39539536145395</v>
       </c>
-      <c r="S78" s="28">
+      <c r="S78" s="41">
         <f>J78/I78</f>
         <v>3.3940931650753379E-3</v>
       </c>
-      <c r="T78" s="29">
+      <c r="T78" s="42">
         <f>N78/E78</f>
         <v>3.4726027397260273E-2</v>
       </c>
-      <c r="U78" s="29">
+      <c r="U78" s="42">
         <f>N78/E78/C78*1000</f>
         <v>1.7907398616573986</v>
       </c>
-      <c r="V78" s="30">
+      <c r="V78" s="43">
         <f>O78/N78</f>
         <v>4.9309664694280081E-2</v>
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="16">
+      <c r="A79" s="31">
         <v>44365.512499999997</v>
       </c>
       <c r="B79" t="s">
@@ -5754,33 +5756,33 @@
       <c r="P79" t="s">
         <v>55</v>
       </c>
-      <c r="Q79" s="26">
+      <c r="Q79" s="39">
         <f>I79/E79</f>
         <v>0.19627226463104325</v>
       </c>
-      <c r="R79" s="27">
+      <c r="R79" s="40">
         <f>I79/E79/C79*1000</f>
         <v>79.688292582640372</v>
       </c>
-      <c r="S79" s="28">
+      <c r="S79" s="41">
         <f>J79/I79</f>
         <v>8.8805341284760482E-3</v>
       </c>
-      <c r="T79" s="29">
+      <c r="T79" s="42">
         <f>N79/E79</f>
         <v>8.117048346055979E-3</v>
       </c>
-      <c r="U79" s="29">
+      <c r="U79" s="42">
         <f>N79/E79/C79*1000</f>
         <v>3.2955941315696218</v>
       </c>
-      <c r="V79" s="30">
+      <c r="V79" s="43">
         <f>O79/N79</f>
         <v>7.3667711598746077E-2</v>
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="16">
+      <c r="A80" s="31">
         <v>373084.60763888899</v>
       </c>
       <c r="B80" t="s">
@@ -5828,33 +5830,33 @@
       <c r="P80" t="s">
         <v>55</v>
       </c>
-      <c r="Q80" s="26">
+      <c r="Q80" s="39">
         <f>I80/E80</f>
         <v>0.13573093220338983</v>
       </c>
-      <c r="R80" s="27">
+      <c r="R80" s="40">
         <f>I80/E80/C80*1000</f>
         <v>82.561394284300391</v>
       </c>
-      <c r="S80" s="28">
+      <c r="S80" s="41">
         <f>J80/I80</f>
         <v>1.0302036993678295E-2</v>
       </c>
-      <c r="T80" s="29">
+      <c r="T80" s="42">
         <f>N80/E80</f>
         <v>7.6694915254237285E-3</v>
       </c>
-      <c r="U80" s="29">
+      <c r="U80" s="42">
         <f>N80/E80/C80*1000</f>
         <v>4.6651408305497135</v>
       </c>
-      <c r="V80" s="30">
+      <c r="V80" s="43">
         <f>O80/N80</f>
         <v>7.4585635359116026E-2</v>
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="16">
+      <c r="A81" s="31">
         <v>44364.426388888904</v>
       </c>
       <c r="B81" t="s">
@@ -5902,33 +5904,33 @@
       <c r="P81" t="s">
         <v>55</v>
       </c>
-      <c r="Q81" s="26">
+      <c r="Q81" s="39">
         <f>I81/E81</f>
         <v>8.9916666666666673E-2</v>
       </c>
-      <c r="R81" s="27">
+      <c r="R81" s="40">
         <f>I81/E81/C81*1000</f>
         <v>110.46273546273548</v>
       </c>
-      <c r="S81" s="28">
+      <c r="S81" s="41">
         <f>J81/I81</f>
         <v>1.7238183503243742E-2</v>
       </c>
-      <c r="T81" s="29">
+      <c r="T81" s="42">
         <f>N81/E81</f>
         <v>5.2666666666666669E-3</v>
       </c>
-      <c r="U81" s="29">
+      <c r="U81" s="42">
         <f>N81/E81/C81*1000</f>
         <v>6.4701064701064706</v>
       </c>
-      <c r="V81" s="30">
+      <c r="V81" s="43">
         <f>O81/N81</f>
         <v>0.15189873417721519</v>
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="16">
+      <c r="A82" s="31">
         <v>44371.470138888901</v>
       </c>
       <c r="B82" t="s">
@@ -5976,33 +5978,33 @@
       <c r="P82" t="s">
         <v>59</v>
       </c>
-      <c r="Q82" s="26">
+      <c r="Q82" s="39">
         <f>I82/E82</f>
         <v>0.19163333333333332</v>
       </c>
-      <c r="R82" s="27">
+      <c r="R82" s="40">
         <f>I82/E82/C82*1000</f>
         <v>77.804845039924203</v>
       </c>
-      <c r="S82" s="28">
+      <c r="S82" s="41">
         <f>J82/I82</f>
         <v>8.5812025279758796E-3</v>
       </c>
-      <c r="T82" s="29">
+      <c r="T82" s="42">
         <f>N82/E82</f>
         <v>8.6444444444444442E-3</v>
       </c>
-      <c r="U82" s="29">
+      <c r="U82" s="42">
         <f>N82/E82/C82*1000</f>
         <v>3.5097216583209274</v>
       </c>
-      <c r="V82" s="30">
+      <c r="V82" s="43">
         <f>O82/N82</f>
         <v>6.6838046272493568E-2</v>
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="16">
+      <c r="A83" s="31">
         <v>44372.523611111101</v>
       </c>
       <c r="B83" t="s">
@@ -6050,33 +6052,33 @@
       <c r="P83" t="s">
         <v>62</v>
       </c>
-      <c r="Q83" s="26">
+      <c r="Q83" s="39">
         <f>I83/E83</f>
         <v>0.17237212276214833</v>
       </c>
-      <c r="R83" s="27">
+      <c r="R83" s="40">
         <f>I83/E83/C83*1000</f>
         <v>69.701626672926949</v>
       </c>
-      <c r="S83" s="28">
+      <c r="S83" s="41">
         <f>J83/I83</f>
         <v>6.9364590674728293E-3</v>
       </c>
-      <c r="T83" s="29">
+      <c r="T83" s="42">
         <f>N83/E83</f>
         <v>9.2007672634271103E-3</v>
       </c>
-      <c r="U83" s="29">
+      <c r="U83" s="42">
         <f>N83/E83/C83*1000</f>
         <v>3.7204881776898948</v>
       </c>
-      <c r="V83" s="30">
+      <c r="V83" s="43">
         <f>O83/N83</f>
         <v>4.4475330090340513E-2</v>
       </c>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="16">
+      <c r="A84" s="31">
         <v>44371.710416666698</v>
       </c>
       <c r="B84" t="s">
@@ -6124,33 +6126,33 @@
       <c r="P84" t="s">
         <v>59</v>
       </c>
-      <c r="Q84" s="26">
+      <c r="Q84" s="39">
         <f>I84/E84</f>
         <v>0.14144999999999999</v>
       </c>
-      <c r="R84" s="27">
+      <c r="R84" s="40">
         <f>I84/E84/C84*1000</f>
         <v>86.040145985401452</v>
       </c>
-      <c r="S84" s="28">
+      <c r="S84" s="41">
         <f>J84/I84</f>
         <v>2.1208907741251327E-2</v>
       </c>
-      <c r="T84" s="29">
+      <c r="T84" s="42">
         <f>N84/E84</f>
         <v>8.2500000000000004E-3</v>
       </c>
-      <c r="U84" s="29">
+      <c r="U84" s="42">
         <f>N84/E84/C84*1000</f>
         <v>5.0182481751824826</v>
       </c>
-      <c r="V84" s="30">
+      <c r="V84" s="43">
         <f>O84/N84</f>
         <v>0.14545454545454545</v>
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="16">
+      <c r="A85" s="31">
         <v>44375.402777777803</v>
       </c>
       <c r="B85" t="s">
@@ -6198,33 +6200,33 @@
       <c r="P85" t="s">
         <v>59</v>
       </c>
-      <c r="Q85" s="26">
+      <c r="Q85" s="39">
         <f>I85/E85</f>
         <v>9.0306250000000005E-2</v>
       </c>
-      <c r="R85" s="27">
+      <c r="R85" s="40">
         <f>I85/E85/C85*1000</f>
         <v>110.94133906633907</v>
       </c>
-      <c r="S85" s="28">
+      <c r="S85" s="41">
         <f>J85/I85</f>
         <v>1.0519759152882552E-2</v>
       </c>
-      <c r="T85" s="29">
+      <c r="T85" s="42">
         <f>N85/E85</f>
         <v>6.41875E-3</v>
       </c>
-      <c r="U85" s="29">
+      <c r="U85" s="42">
         <f>N85/E85/C85*1000</f>
         <v>7.8854422604422609</v>
       </c>
-      <c r="V85" s="30">
+      <c r="V85" s="43">
         <f>O85/N85</f>
         <v>6.815968841285297E-2</v>
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="16">
+      <c r="A86" s="31">
         <v>44378.614583333299</v>
       </c>
       <c r="B86" t="s">
@@ -6272,27 +6274,27 @@
       <c r="P86" t="s">
         <v>62</v>
       </c>
-      <c r="Q86" s="26">
+      <c r="Q86" s="39">
         <f>I86/E86</f>
         <v>8.3825338253382536E-2</v>
       </c>
-      <c r="R86" s="27">
+      <c r="R86" s="40">
         <f>I86/E86/C86*1000</f>
         <v>100.87284988373351</v>
       </c>
-      <c r="S86" s="28">
+      <c r="S86" s="41">
         <f>J86/I86</f>
         <v>1.0785033015407191E-2</v>
       </c>
-      <c r="T86" s="29">
+      <c r="T86" s="42">
         <f>N86/E86</f>
         <v>6.5313653136531364E-3</v>
       </c>
-      <c r="U86" s="29">
+      <c r="U86" s="42">
         <f>N86/E86/C86*1000</f>
         <v>7.8596453834574449</v>
       </c>
-      <c r="V86" s="30">
+      <c r="V86" s="43">
         <f>O86/N86</f>
         <v>6.5913370998116755E-2</v>
       </c>
@@ -6307,85 +6309,85 @@
       <c r="D87" t="s">
         <v>67</v>
       </c>
-      <c r="Q87" s="26" t="e">
+      <c r="Q87" s="39" t="e">
         <f>I87/E87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R87" s="27" t="e">
+      <c r="R87" s="40" t="e">
         <f>I87/E87/C87*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S87" s="28" t="e">
+      <c r="S87" s="41" t="e">
         <f>J87/I87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T87" s="29" t="e">
+      <c r="T87" s="42" t="e">
         <f>N87/E87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U87" s="29" t="e">
+      <c r="U87" s="42" t="e">
         <f>N87/E87/C87*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V87" s="30" t="e">
+      <c r="V87" s="43" t="e">
         <f>O87/N87</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="Q88" s="26" t="e">
+      <c r="Q88" s="39" t="e">
         <f>I88/E88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R88" s="27" t="e">
+      <c r="R88" s="40" t="e">
         <f>I88/E88/C88*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S88" s="28" t="e">
+      <c r="S88" s="41" t="e">
         <f>J88/I88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T88" s="29" t="e">
+      <c r="T88" s="42" t="e">
         <f>N88/E88</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U88" s="29" t="e">
+      <c r="U88" s="42" t="e">
         <f>N88/E88/C88*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V88" s="30" t="e">
+      <c r="V88" s="43" t="e">
         <f>O88/N88</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:22">
-      <c r="Q89" s="26" t="e">
+      <c r="Q89" s="39" t="e">
         <f>I89/E89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R89" s="27" t="e">
+      <c r="R89" s="40" t="e">
         <f>I89/E89/C89*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S89" s="28" t="e">
+      <c r="S89" s="41" t="e">
         <f>J89/I89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T89" s="29" t="e">
+      <c r="T89" s="42" t="e">
         <f>N89/E89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U89" s="29" t="e">
+      <c r="U89" s="42" t="e">
         <f>N89/E89/C89*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V89" s="30" t="e">
+      <c r="V89" s="43" t="e">
         <f>O89/N89</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="13.9">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B92" t="s">
@@ -6393,132 +6395,132 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="60" t="s">
+      <c r="E95" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="61" t="s">
+      <c r="F95" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="62" t="s">
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L95" s="62"/>
-      <c r="M95" s="62"/>
-      <c r="N95" s="62"/>
-      <c r="O95" s="62"/>
-      <c r="P95" s="63" t="s">
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q95" s="57" t="s">
+      <c r="Q95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R95" s="55" t="s">
+      <c r="R95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S95" s="56" t="s">
+      <c r="S95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T95" s="57" t="s">
+      <c r="T95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U95" s="55" t="s">
+      <c r="U95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V95" s="56" t="s">
+      <c r="V95" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="58"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="2" t="s">
+      <c r="A96" s="9"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="K96" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L96" s="3" t="s">
+      <c r="L96" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M96" s="3" t="s">
+      <c r="M96" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N96" s="3" t="s">
+      <c r="N96" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O96" s="3" t="s">
+      <c r="O96" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P96" s="63"/>
-      <c r="Q96" s="57"/>
-      <c r="R96" s="55"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="57"/>
-      <c r="U96" s="55"/>
-      <c r="V96" s="56"/>
-    </row>
-    <row r="97" spans="1:24">
-      <c r="A97" s="48"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="52"/>
-      <c r="U97" s="53"/>
-      <c r="V97" s="54"/>
-    </row>
-    <row r="98" spans="1:24" ht="15">
-      <c r="A98" s="16">
+      <c r="P96" s="4"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="15"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="17"/>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" s="31">
         <v>44436.8972222222</v>
       </c>
       <c r="B98" t="s">
@@ -6563,33 +6565,33 @@
       <c r="O98">
         <v>92</v>
       </c>
-      <c r="Q98" s="26">
+      <c r="Q98" s="39">
         <f>I98/E98</f>
         <v>0.35390748031496061</v>
       </c>
-      <c r="R98" s="27">
+      <c r="R98" s="40">
         <f>I98/E98/C98*1000</f>
         <v>7.0359340022854999</v>
       </c>
-      <c r="S98" s="28">
+      <c r="S98" s="41">
         <f>J98/I98</f>
         <v>5.8403092582807242E-3</v>
       </c>
-      <c r="T98" s="29">
+      <c r="T98" s="42">
         <f>N98/E98</f>
         <v>4.292322834645669E-2</v>
       </c>
-      <c r="U98" s="29">
+      <c r="U98" s="42">
         <f>N98/E98/C98*1000</f>
         <v>0.85334449992955652</v>
       </c>
-      <c r="V98" s="30">
+      <c r="V98" s="43">
         <f>O98/N98</f>
         <v>2.1096078880990597E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="15">
-      <c r="A99" s="16">
+    <row r="99" spans="1:22">
+      <c r="A99" s="31">
         <v>44439.548611111102</v>
       </c>
       <c r="B99" t="s">
@@ -6598,8 +6600,8 @@
       <c r="C99">
         <v>5.67</v>
       </c>
-      <c r="D99">
-        <v>5</v>
+      <c r="D99" t="s">
+        <v>73</v>
       </c>
       <c r="E99">
         <v>227000</v>
@@ -6634,33 +6636,33 @@
       <c r="O99">
         <v>88</v>
       </c>
-      <c r="Q99" s="26">
+      <c r="Q99" s="39">
         <f>I99/E99</f>
         <v>5.8757709251101319E-2</v>
       </c>
-      <c r="R99" s="27">
+      <c r="R99" s="40">
         <f>I99/E99/C99*1000</f>
         <v>10.362911684497588</v>
       </c>
-      <c r="S99" s="28">
+      <c r="S99" s="41">
         <f>J99/I99</f>
         <v>1.1695906432748537E-2</v>
       </c>
-      <c r="T99" s="29">
+      <c r="T99" s="42">
         <f>N99/E99</f>
         <v>1.2334801762114538E-2</v>
       </c>
-      <c r="U99" s="29">
+      <c r="U99" s="42">
         <f>N99/E99/C99*1000</f>
         <v>2.1754500462283133</v>
       </c>
-      <c r="V99" s="30">
+      <c r="V99" s="43">
         <f>O99/N99</f>
         <v>3.1428571428571431E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="15">
-      <c r="A100" s="16">
+    <row r="100" spans="1:22" ht="15">
+      <c r="A100" s="31">
         <v>44440.358333333301</v>
       </c>
       <c r="B100" t="s">
@@ -6669,8 +6671,8 @@
       <c r="C100">
         <v>45.17</v>
       </c>
-      <c r="D100">
-        <v>20</v>
+      <c r="D100" t="s">
+        <v>74</v>
       </c>
       <c r="E100">
         <v>68400</v>
@@ -6705,33 +6707,33 @@
       <c r="O100">
         <v>67</v>
       </c>
-      <c r="Q100" s="26">
+      <c r="Q100" s="39">
         <f>I100/E100</f>
         <v>0.33527777777777779</v>
       </c>
-      <c r="R100" s="27">
+      <c r="R100" s="40">
         <f>I100/E100/C100*1000</f>
         <v>7.4225764396231524</v>
       </c>
-      <c r="S100" s="28">
+      <c r="S100" s="41">
         <f>J100/I100</f>
         <v>7.1948720184886409E-3</v>
       </c>
-      <c r="T100" s="29">
+      <c r="T100" s="42">
         <f>N100/E100</f>
         <v>4.3289473684210523E-2</v>
       </c>
-      <c r="U100" s="29">
+      <c r="U100" s="42">
         <f>N100/E100/C100*1000</f>
         <v>0.95836780350255746</v>
       </c>
-      <c r="V100" s="30">
+      <c r="V100" s="43">
         <f>O100/N100</f>
         <v>2.2627490712597096E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="15">
-      <c r="A101" s="16">
+    <row r="101" spans="1:22" ht="15">
+      <c r="A101" s="31">
         <v>44441.777777777803</v>
       </c>
       <c r="B101" t="s">
@@ -6740,8 +6742,8 @@
       <c r="C101">
         <v>10.81</v>
       </c>
-      <c r="D101">
-        <v>7</v>
+      <c r="D101" t="s">
+        <v>75</v>
       </c>
       <c r="E101">
         <v>122400</v>
@@ -6776,33 +6778,33 @@
       <c r="O101">
         <v>70</v>
       </c>
-      <c r="Q101" s="26">
+      <c r="Q101" s="39">
         <f>I101/E101</f>
         <v>0.10381535947712418</v>
       </c>
-      <c r="R101" s="27">
+      <c r="R101" s="40">
         <f>I101/E101/C101*1000</f>
         <v>9.603641024710841</v>
       </c>
-      <c r="S101" s="28">
+      <c r="S101" s="41">
         <f>J101/I101</f>
         <v>1.1017549382230266E-2</v>
       </c>
-      <c r="T101" s="29">
+      <c r="T101" s="42">
         <f>N101/E101</f>
         <v>1.7091503267973856E-2</v>
       </c>
-      <c r="U101" s="29">
+      <c r="U101" s="42">
         <f>N101/E101/C101*1000</f>
         <v>1.5810826334850929</v>
       </c>
-      <c r="V101" s="30">
+      <c r="V101" s="43">
         <f>O101/N101</f>
         <v>3.3460803059273424E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="15">
-      <c r="A102" s="16">
+    <row r="102" spans="1:22" ht="15">
+      <c r="A102" s="31">
         <v>44442.364583333299</v>
       </c>
       <c r="B102" t="s">
@@ -6811,8 +6813,8 @@
       <c r="C102">
         <v>39.89</v>
       </c>
-      <c r="D102">
-        <v>18</v>
+      <c r="D102" t="s">
+        <v>76</v>
       </c>
       <c r="E102">
         <v>50000</v>
@@ -6847,33 +6849,33 @@
       <c r="O102">
         <v>61</v>
       </c>
-      <c r="Q102" s="26">
+      <c r="Q102" s="39">
         <f>I102/E102</f>
         <v>0.30819999999999997</v>
       </c>
-      <c r="R102" s="27">
+      <c r="R102" s="40">
         <f>I102/E102/C102*1000</f>
         <v>7.7262471797442958</v>
       </c>
-      <c r="S102" s="28">
+      <c r="S102" s="41">
         <f>J102/I102</f>
         <v>8.9552238805970154E-3</v>
       </c>
-      <c r="T102" s="29">
+      <c r="T102" s="42">
         <f>N102/E102</f>
         <v>3.8679999999999999E-2</v>
       </c>
-      <c r="U102" s="29">
+      <c r="U102" s="42">
         <f>N102/E102/C102*1000</f>
         <v>0.9696665831035346</v>
       </c>
-      <c r="V102" s="30">
+      <c r="V102" s="43">
         <f>O102/N102</f>
         <v>3.1540847983453982E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="15">
-      <c r="A103" s="16">
+    <row r="103" spans="1:22" ht="15">
+      <c r="A103" s="31">
         <v>44444.599305555603</v>
       </c>
       <c r="B103" t="s">
@@ -6882,8 +6884,8 @@
       <c r="C103">
         <v>16.079999999999998</v>
       </c>
-      <c r="D103">
-        <v>9</v>
+      <c r="D103" t="s">
+        <v>77</v>
       </c>
       <c r="E103">
         <v>192800</v>
@@ -6918,33 +6920,33 @@
       <c r="O103">
         <v>95</v>
       </c>
-      <c r="Q103" s="26">
+      <c r="Q103" s="39">
         <f>I103/E103</f>
         <v>0.14370331950207468</v>
       </c>
-      <c r="R103" s="27">
+      <c r="R103" s="40">
         <f>I103/E103/C103*1000</f>
         <v>8.9367736008752932</v>
       </c>
-      <c r="S103" s="28">
+      <c r="S103" s="41">
         <f>J103/I103</f>
         <v>7.1464664693568179E-3</v>
       </c>
-      <c r="T103" s="29">
+      <c r="T103" s="42">
         <f>N103/E103</f>
         <v>2.1021784232365146E-2</v>
       </c>
-      <c r="U103" s="29">
+      <c r="U103" s="42">
         <f>N103/E103/C103*1000</f>
         <v>1.3073248900724594</v>
       </c>
-      <c r="V103" s="30">
+      <c r="V103" s="43">
         <f>O103/N103</f>
         <v>2.3439427584505304E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="15">
-      <c r="A104" s="16">
+    <row r="104" spans="1:22" ht="15">
+      <c r="A104" s="31">
         <v>44445.34375</v>
       </c>
       <c r="B104" t="s">
@@ -6953,8 +6955,8 @@
       <c r="C104">
         <v>34.020000000000003</v>
       </c>
-      <c r="D104">
-        <v>15</v>
+      <c r="D104" t="s">
+        <v>78</v>
       </c>
       <c r="E104">
         <v>64100</v>
@@ -6989,197 +6991,274 @@
       <c r="O104">
         <v>62</v>
       </c>
-      <c r="Q104" s="26">
+      <c r="Q104" s="39">
         <f>I104/E104</f>
         <v>0.27330733229329174</v>
       </c>
-      <c r="R104" s="27">
+      <c r="R104" s="40">
         <f>I104/E104/C104*1000</f>
         <v>8.0337252290797085</v>
       </c>
-      <c r="S104" s="28">
+      <c r="S104" s="41">
         <f>J104/I104</f>
         <v>8.6192134254238252E-3</v>
       </c>
-      <c r="T104" s="29">
+      <c r="T104" s="42">
         <f>N104/E104</f>
         <v>3.4820592823712949E-2</v>
       </c>
-      <c r="U104" s="29">
+      <c r="U104" s="42">
         <f>N104/E104/C104*1000</f>
         <v>1.023533004812256</v>
       </c>
-      <c r="V104" s="30">
+      <c r="V104" s="43">
         <f>O104/N104</f>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15">
-      <c r="A105" s="43">
-        <v>44448.357638888891</v>
-      </c>
-      <c r="B105" s="42" t="s">
+    <row r="105" spans="1:22" ht="15">
+      <c r="A105" s="31">
+        <v>44448.357638888898</v>
+      </c>
+      <c r="B105" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="42">
+      <c r="C105">
         <v>21.92</v>
       </c>
-      <c r="D105" s="42">
-        <v>11</v>
-      </c>
-      <c r="E105" s="42">
+      <c r="D105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105">
         <v>119975</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F105">
         <v>661.61</v>
       </c>
-      <c r="G105" s="42">
+      <c r="G105">
         <v>2.25</v>
       </c>
-      <c r="H105" s="42">
+      <c r="H105">
         <v>24846</v>
       </c>
-      <c r="I105" s="42">
+      <c r="I105">
         <v>23230</v>
       </c>
-      <c r="J105" s="42">
+      <c r="J105">
         <v>177</v>
       </c>
-      <c r="K105" s="42">
+      <c r="K105">
         <v>1460.94</v>
       </c>
-      <c r="L105" s="42">
+      <c r="L105">
         <v>4.13</v>
       </c>
-      <c r="M105" s="42">
+      <c r="M105">
         <v>3520</v>
       </c>
-      <c r="N105" s="42">
+      <c r="N105">
         <v>3043</v>
       </c>
-      <c r="O105" s="42">
+      <c r="O105">
         <v>83</v>
       </c>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="44">
-        <v>0.19361999999999999</v>
-      </c>
-      <c r="R105" s="45">
-        <v>8.8331999999999997</v>
-      </c>
-      <c r="S105" s="44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T105" s="46">
-        <v>2.5360000000000001E-2</v>
-      </c>
-      <c r="U105" s="46">
-        <v>1.1571</v>
-      </c>
-      <c r="V105" s="47">
-        <v>2.7E-2</v>
-      </c>
-      <c r="W105" s="42"/>
-      <c r="X105" s="42"/>
-    </row>
-    <row r="106" spans="1:24" ht="15">
-      <c r="A106" s="43">
+      <c r="Q105" s="39">
+        <f>I105/E105</f>
+        <v>0.19362367159824964</v>
+      </c>
+      <c r="R105" s="40">
+        <f>I105/E105/C105*1000</f>
+        <v>8.8331966970004405</v>
+      </c>
+      <c r="S105" s="41">
+        <f>J105/I105</f>
+        <v>7.6194575979337065E-3</v>
+      </c>
+      <c r="T105" s="42">
+        <f>N105/E105</f>
+        <v>2.5363617420295893E-2</v>
+      </c>
+      <c r="U105" s="42">
+        <f>N105/E105/C105*1000</f>
+        <v>1.1570993348675132</v>
+      </c>
+      <c r="V105" s="43">
+        <f>O105/N105</f>
+        <v>2.7275714755175814E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="15">
+      <c r="A106" s="31">
         <v>44452.35</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="42">
+      <c r="C106">
         <v>28.65</v>
       </c>
-      <c r="D106" s="42">
-        <v>14</v>
-      </c>
-      <c r="E106" s="42">
+      <c r="D106" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106">
         <v>72200</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106">
         <v>661.57</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106">
         <v>2.33</v>
       </c>
-      <c r="H106" s="42">
+      <c r="H106">
         <v>18255</v>
       </c>
-      <c r="I106" s="42">
+      <c r="I106">
         <v>17262</v>
       </c>
-      <c r="J106" s="42">
+      <c r="J106">
         <v>149</v>
       </c>
-      <c r="K106" s="42">
+      <c r="K106">
         <v>1460.98</v>
       </c>
-      <c r="L106" s="42">
+      <c r="L106">
         <v>3.7</v>
       </c>
-      <c r="M106" s="42">
+      <c r="M106">
         <v>2490</v>
       </c>
-      <c r="N106" s="42">
+      <c r="N106">
         <v>2270</v>
       </c>
-      <c r="O106" s="42">
+      <c r="O106">
         <v>63</v>
       </c>
-      <c r="P106" s="42"/>
-      <c r="Q106" s="44">
-        <v>0.23909</v>
-      </c>
-      <c r="R106" s="45">
-        <v>8.3451000000000004</v>
-      </c>
-      <c r="S106" s="44">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="T106" s="46">
-        <v>3.1440000000000003E-2</v>
-      </c>
-      <c r="U106" s="46">
-        <v>1.0973999999999999</v>
-      </c>
-      <c r="V106" s="47">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W106" s="42"/>
-      <c r="X106" s="42"/>
+      <c r="Q106" s="39">
+        <f>I106/E106</f>
+        <v>0.23908587257617728</v>
+      </c>
+      <c r="R106" s="40">
+        <f>I106/E106/C106*1000</f>
+        <v>8.345056634421546</v>
+      </c>
+      <c r="S106" s="41">
+        <f>J106/I106</f>
+        <v>8.6316765148881942E-3</v>
+      </c>
+      <c r="T106" s="42">
+        <f>N106/E106</f>
+        <v>3.14404432132964E-2</v>
+      </c>
+      <c r="U106" s="42">
+        <f>N106/E106/C106*1000</f>
+        <v>1.0973976688759652</v>
+      </c>
+      <c r="V106" s="43">
+        <f>O106/N106</f>
+        <v>2.7753303964757708E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="15">
+      <c r="A107" s="31">
+        <v>44452.815277777801</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107">
+        <v>27.42</v>
+      </c>
+      <c r="D107" t="s">
+        <v>65</v>
+      </c>
+      <c r="E107">
+        <v>40000</v>
+      </c>
+      <c r="F107">
+        <v>661.63</v>
+      </c>
+      <c r="G107">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H107">
+        <v>9714</v>
+      </c>
+      <c r="I107">
+        <v>9140</v>
+      </c>
+      <c r="J107">
+        <v>110</v>
+      </c>
+      <c r="K107">
+        <v>1460.98</v>
+      </c>
+      <c r="L107">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M107">
+        <v>1399</v>
+      </c>
+      <c r="N107">
+        <v>1307</v>
+      </c>
+      <c r="O107">
+        <v>45</v>
+      </c>
+      <c r="Q107" s="39">
+        <f>I107/E107</f>
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="R107" s="40">
+        <f>I107/E107/C107*1000</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="S107" s="41">
+        <f>J107/I107</f>
+        <v>1.2035010940919038E-2</v>
+      </c>
+      <c r="T107" s="42">
+        <f>N107/E107</f>
+        <v>3.2675000000000003E-2</v>
+      </c>
+      <c r="U107" s="42">
+        <f>N107/E107/C107*1000</f>
+        <v>1.1916484318016047</v>
+      </c>
+      <c r="V107" s="43">
+        <f>O107/N107</f>
+        <v>3.442999234889059E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="K95:O95"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
     <mergeCell ref="U95:U96"/>
     <mergeCell ref="V95:V96"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="K95:O95"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="R95:R96"/>
     <mergeCell ref="S95:S96"/>
     <mergeCell ref="T95:T96"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7187,141 +7266,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F302D77-A672-4C8A-A6FA-6D27F2767884}">
-  <dimension ref="A1:X13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92EC9A-8925-443A-AB74-16A5B368A54C}">
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.45" customHeight="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:22" ht="14.45" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.45">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:22" ht="14.45">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="56"/>
-    </row>
-    <row r="3" spans="1:24" ht="14.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="16">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.45">
+      <c r="A4" s="31">
         <v>44436.8972222222</v>
       </c>
       <c r="B4" t="s">
@@ -7366,33 +7444,33 @@
       <c r="O4">
         <v>92</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="39">
         <f>I4/E4</f>
         <v>0.35390748031496061</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="40">
         <f>I4/E4/C4*1000</f>
         <v>7.0359340022854999</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="41">
         <f>J4/I4</f>
         <v>5.8403092582807242E-3</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="42">
         <f>N4/E4</f>
         <v>4.292322834645669E-2</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="42">
         <f>N4/E4/C4*1000</f>
         <v>0.85334449992955652</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="43">
         <f>O4/N4</f>
         <v>2.1096078880990597E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="16">
+    <row r="5" spans="1:22" ht="14.45">
+      <c r="A5" s="31">
         <v>44439.548611111102</v>
       </c>
       <c r="B5" t="s">
@@ -7437,33 +7515,33 @@
       <c r="O5">
         <v>88</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="39">
         <f>I5/E5</f>
         <v>5.8757709251101319E-2</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="40">
         <f>I5/E5/C5*1000</f>
         <v>10.362911684497588</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="41">
         <f>J5/I5</f>
         <v>1.1695906432748537E-2</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="42">
         <f>N5/E5</f>
         <v>1.2334801762114538E-2</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="42">
         <f>N5/E5/C5*1000</f>
         <v>2.1754500462283133</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="43">
         <f>O5/N5</f>
         <v>3.1428571428571431E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="16">
+    <row r="6" spans="1:22">
+      <c r="A6" s="31">
         <v>44440.358333333301</v>
       </c>
       <c r="B6" t="s">
@@ -7508,33 +7586,33 @@
       <c r="O6">
         <v>67</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="39">
         <f>I6/E6</f>
         <v>0.33527777777777779</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="40">
         <f>I6/E6/C6*1000</f>
         <v>7.4225764396231524</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="41">
         <f>J6/I6</f>
         <v>7.1948720184886409E-3</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="42">
         <f>N6/E6</f>
         <v>4.3289473684210523E-2</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="42">
         <f>N6/E6/C6*1000</f>
         <v>0.95836780350255746</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="43">
         <f>O6/N6</f>
         <v>2.2627490712597096E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="16">
+    <row r="7" spans="1:22">
+      <c r="A7" s="31">
         <v>44441.777777777803</v>
       </c>
       <c r="B7" t="s">
@@ -7579,33 +7657,33 @@
       <c r="O7">
         <v>70</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="39">
         <f>I7/E7</f>
         <v>0.10381535947712418</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="40">
         <f>I7/E7/C7*1000</f>
         <v>9.603641024710841</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="41">
         <f>J7/I7</f>
         <v>1.1017549382230266E-2</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="42">
         <f>N7/E7</f>
         <v>1.7091503267973856E-2</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="42">
         <f>N7/E7/C7*1000</f>
         <v>1.5810826334850929</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="43">
         <f>O7/N7</f>
         <v>3.3460803059273424E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="16">
+    <row r="8" spans="1:22">
+      <c r="A8" s="31">
         <v>44442.364583333299</v>
       </c>
       <c r="B8" t="s">
@@ -7650,33 +7728,33 @@
       <c r="O8">
         <v>61</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="39">
         <f>I8/E8</f>
         <v>0.30819999999999997</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="40">
         <f>I8/E8/C8*1000</f>
         <v>7.7262471797442958</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="41">
         <f>J8/I8</f>
         <v>8.9552238805970154E-3</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="42">
         <f>N8/E8</f>
         <v>3.8679999999999999E-2</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="42">
         <f>N8/E8/C8*1000</f>
         <v>0.9696665831035346</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="43">
         <f>O8/N8</f>
         <v>3.1540847983453982E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="16">
+    <row r="9" spans="1:22">
+      <c r="A9" s="31">
         <v>44444.599305555603</v>
       </c>
       <c r="B9" t="s">
@@ -7721,33 +7799,33 @@
       <c r="O9">
         <v>95</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="39">
         <f>I9/E9</f>
         <v>0.14370331950207468</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="40">
         <f>I9/E9/C9*1000</f>
         <v>8.9367736008752932</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="41">
         <f>J9/I9</f>
         <v>7.1464664693568179E-3</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="42">
         <f>N9/E9</f>
         <v>2.1021784232365146E-2</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="42">
         <f>N9/E9/C9*1000</f>
         <v>1.3073248900724594</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="43">
         <f>O9/N9</f>
         <v>2.3439427584505304E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="16">
+    <row r="10" spans="1:22">
+      <c r="A10" s="31">
         <v>44445.34375</v>
       </c>
       <c r="B10" t="s">
@@ -7792,243 +7870,314 @@
       <c r="O10">
         <v>62</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="39">
         <f>I10/E10</f>
         <v>0.27330733229329174</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="40">
         <f>I10/E10/C10*1000</f>
         <v>8.0337252290797085</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="41">
         <f>J10/I10</f>
         <v>8.6192134254238252E-3</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="42">
         <f>N10/E10</f>
         <v>3.4820592823712949E-2</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="42">
         <f>N10/E10/C10*1000</f>
         <v>1.023533004812256</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="43">
         <f>O10/N10</f>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="43">
-        <v>44448.357638888891</v>
-      </c>
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="1:22">
+      <c r="A11" s="31">
+        <v>44448.357638888898</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11">
         <v>21.92</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11">
         <v>119975</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11">
         <v>661.61</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11">
         <v>2.25</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11">
         <v>24846</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11">
         <v>23230</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11">
         <v>177</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11">
         <v>1460.94</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11">
         <v>4.13</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11">
         <v>3520</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11">
         <v>3043</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11">
         <v>83</v>
       </c>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="44">
-        <v>0.19361999999999999</v>
-      </c>
-      <c r="R11" s="45">
-        <v>8.8331999999999997</v>
-      </c>
-      <c r="S11" s="44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="T11" s="46">
-        <v>2.5360000000000001E-2</v>
-      </c>
-      <c r="U11" s="46">
-        <v>1.1571</v>
-      </c>
-      <c r="V11" s="47">
-        <v>2.7E-2</v>
-      </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="43">
+      <c r="Q11" s="39">
+        <f>I11/E11</f>
+        <v>0.19362367159824964</v>
+      </c>
+      <c r="R11" s="40">
+        <f>I11/E11/C11*1000</f>
+        <v>8.8331966970004405</v>
+      </c>
+      <c r="S11" s="41">
+        <f>J11/I11</f>
+        <v>7.6194575979337065E-3</v>
+      </c>
+      <c r="T11" s="42">
+        <f>N11/E11</f>
+        <v>2.5363617420295893E-2</v>
+      </c>
+      <c r="U11" s="42">
+        <f>N11/E11/C11*1000</f>
+        <v>1.1570993348675132</v>
+      </c>
+      <c r="V11" s="43">
+        <f>O11/N11</f>
+        <v>2.7275714755175814E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="31">
         <v>44452.35</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12">
         <v>28.65</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12">
         <v>72200</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12">
         <v>661.57</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12">
         <v>2.33</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12">
         <v>18255</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12">
         <v>17262</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12">
         <v>149</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12">
         <v>1460.98</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12">
         <v>3.7</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12">
         <v>2490</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12">
         <v>2270</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12">
         <v>63</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="44">
-        <v>0.23909</v>
-      </c>
-      <c r="R12" s="45">
-        <v>8.3451000000000004</v>
-      </c>
-      <c r="S12" s="44">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="T12" s="46">
-        <v>3.1440000000000003E-2</v>
-      </c>
-      <c r="U12" s="46">
-        <v>1.0973999999999999</v>
-      </c>
-      <c r="V12" s="47">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.45">
-      <c r="A13" s="40">
+      <c r="Q12" s="39">
+        <f>I12/E12</f>
+        <v>0.23908587257617728</v>
+      </c>
+      <c r="R12" s="40">
+        <f>I12/E12/C12*1000</f>
+        <v>8.345056634421546</v>
+      </c>
+      <c r="S12" s="41">
+        <f>J12/I12</f>
+        <v>8.6316765148881942E-3</v>
+      </c>
+      <c r="T12" s="42">
+        <f>N12/E12</f>
+        <v>3.14404432132964E-2</v>
+      </c>
+      <c r="U12" s="42">
+        <f>N12/E12/C12*1000</f>
+        <v>1.0973976688759652</v>
+      </c>
+      <c r="V12" s="43">
+        <f>O12/N12</f>
+        <v>2.7753303964757708E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="31">
+        <v>44452.815277777801</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>27.42</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>40000</v>
+      </c>
+      <c r="F13">
+        <v>661.63</v>
+      </c>
+      <c r="G13">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H13">
+        <v>9714</v>
+      </c>
+      <c r="I13">
+        <v>9140</v>
+      </c>
+      <c r="J13">
+        <v>110</v>
+      </c>
+      <c r="K13">
+        <v>1460.98</v>
+      </c>
+      <c r="L13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="M13">
+        <v>1399</v>
+      </c>
+      <c r="N13">
+        <v>1307</v>
+      </c>
+      <c r="O13">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="39">
+        <f>I13/E13</f>
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="R13" s="40">
+        <f>I13/E13/C13*1000</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="S13" s="41">
+        <f>J13/I13</f>
+        <v>1.2035010940919038E-2</v>
+      </c>
+      <c r="T13" s="42">
+        <f>N13/E13</f>
+        <v>3.2675000000000003E-2</v>
+      </c>
+      <c r="U13" s="42">
+        <f>N13/E13/C13*1000</f>
+        <v>1.1916484318016047</v>
+      </c>
+      <c r="V13" s="43">
+        <f>O13/N13</f>
+        <v>3.442999234889059E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.45">
+      <c r="A14" s="31">
         <v>44368.427083333299</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>157000</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>661.7</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>2.02</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>2061</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>538</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>91</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>1460.96</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>4.21</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>1283</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>770</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>70</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P14" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="35">
-        <f>I13/E13</f>
+      <c r="Q14" s="47">
+        <f>I14/E14</f>
         <v>3.426751592356688E-3</v>
       </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="37">
-        <f>J13/I13</f>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49">
+        <f>J14/I14</f>
         <v>0.16914498141263939</v>
       </c>
-      <c r="T13" s="38">
-        <f>N13/E13</f>
+      <c r="T14" s="50">
+        <f>N14/E14</f>
         <v>4.9044585987261143E-3</v>
       </c>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39">
-        <f>O13/N13</f>
+      <c r="U14" s="50"/>
+      <c r="V14" s="51">
+        <f>O14/N14</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:O1"/>
@@ -8037,372 +8186,379 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A49CA3-21C2-4E71-8614-8FD3A97ABD60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEBBFF1-3EA4-4D74-AF2A-6AE2FADC807A}">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:22" ht="14.45" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:22" ht="14.45">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="56"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="7">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.45">
+      <c r="A4" s="23">
         <v>44263.3972222222</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="24">
         <v>7.5149999999999997</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="53">
         <v>6</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="24">
         <v>1120500</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="24">
         <v>661.87</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="24">
         <v>1767355</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="24">
         <v>1746666</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="24">
         <v>1361</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="24">
         <v>1461.38</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="24">
         <v>4.38</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="24">
         <v>24273</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="24">
         <v>20918</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="24">
         <v>219</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25">
         <f>I4/E4</f>
         <v>1.5588273092369478</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="26">
         <f>I4/E4/C4*1000</f>
         <v>207.4287836642645</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="27">
         <f>J4/I4</f>
         <v>7.7919877068655368E-4</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="28">
         <f>N4/E4</f>
         <v>1.8668451584114235E-2</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="28">
         <f>N4/E4/C4*1000</f>
         <v>2.4841585607603776</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="29">
         <f>O4/N4</f>
         <v>1.0469452146476719E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="7">
+    <row r="5" spans="1:22" ht="14.45">
+      <c r="A5" s="23">
         <v>44276.535416666702</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="24">
         <v>11.805999999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="53">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="24">
         <v>922200</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="24">
         <v>661.91</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="24">
         <v>2.29</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="24">
         <v>2236027</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="24">
         <v>2213451</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="24">
         <v>1526</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="24">
         <v>1461.42</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="24">
         <v>4.38</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="24">
         <v>27063</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="24">
         <v>24148</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="24">
         <v>218</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10">
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25">
         <f>I5/E5</f>
         <v>2.400185426154847</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="26">
         <f>I5/E5/C5*1000</f>
         <v>203.30217060434077</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="30">
         <f>J5/I5</f>
         <v>6.8942117986799795E-4</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="28">
         <f>N5/E5</f>
         <v>2.6185209282151376E-2</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="28">
         <f>N5/E5/C5*1000</f>
         <v>2.2179577572549025</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="29">
         <f>O5/N5</f>
         <v>9.0276627463972171E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="7">
+    <row r="6" spans="1:22" ht="14.45">
+      <c r="A6" s="23">
         <v>44284.4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="24">
         <v>21.591999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="53">
         <v>13.5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="24">
         <v>431400</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="24">
         <v>661.91</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="24">
         <v>2.27</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="24">
         <v>1725453</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="24">
         <v>1710585</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="24">
         <v>1336</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="24">
         <v>1461.42</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="24">
         <v>4.3099999999999996</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="24">
         <v>18343</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="24">
         <v>17060</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="24">
         <v>165</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25">
         <f>I6/E6</f>
         <v>3.9651947148817803</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="26">
         <f>I6/E6/C6*1000</f>
         <v>183.64184489078272</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="30">
         <f>J6/I6</f>
         <v>7.810193588743032E-4</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="28">
         <f>N6/E6</f>
         <v>3.9545665275846083E-2</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="28">
         <f>N6/E6/C6*1000</f>
         <v>1.8314961687590814</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="29">
         <f>O6/N6</f>
         <v>9.6717467760844087E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="16">
+    <row r="7" spans="1:22" ht="14.45">
+      <c r="A7" s="31">
         <v>44287.638194444502</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>73</v>
+      <c r="B7" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="C7">
         <v>49.188000000000002</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="54">
         <v>25</v>
       </c>
       <c r="E7">
@@ -8423,57 +8579,57 @@
       <c r="J7">
         <v>1437</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="32">
         <v>1461.44</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="32">
         <v>4.47</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="32">
         <v>19387</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="32">
         <v>18452</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="32">
         <v>161</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="25">
         <f>I7/E7</f>
         <v>7.2366690962099129</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="26">
         <f>I7/E7/C7*1000</f>
         <v>147.12265382227193</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="30">
         <f>J7/I7</f>
         <v>7.2365896475977247E-4</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="28">
         <f>N7/E7</f>
         <v>6.7244897959183675E-2</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="28">
         <f>N7/E7/C7*1000</f>
         <v>1.3670996576234788</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="29">
         <f>O7/N7</f>
         <v>8.7253414264036426E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="16">
+    <row r="8" spans="1:22" ht="14.45">
+      <c r="A8" s="31">
         <v>43914.393750000003</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>73</v>
+      <c r="B8" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C8">
         <v>58.734999999999999</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="54">
         <v>30</v>
       </c>
       <c r="E8">
@@ -8494,850 +8650,848 @@
       <c r="J8">
         <v>1431</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8">
         <v>1461.48</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8">
         <v>19282</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8">
         <v>18329</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8">
         <v>161</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="25">
         <f>I8/E8</f>
         <v>8.0468520032706454</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="26">
         <f>I8/E8/C8*1000</f>
         <v>137.00267307858425</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="30">
         <f>J8/I8</f>
         <v>7.2703809456067792E-4</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="28">
         <f>N8/E8</f>
         <v>7.4934587080948481E-2</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="28">
         <f>N8/E8/C8*1000</f>
         <v>1.2758080715237674</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="29">
         <f>O8/N8</f>
         <v>8.7838943750340997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="19">
+    <row r="9" spans="1:22" ht="14.45">
+      <c r="A9" s="31">
         <v>43900.826388888898</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
         <v>68.754000000000005</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="54">
         <v>33.5</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9">
         <v>207500</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9">
         <v>661.98</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9">
         <v>180741</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9">
         <v>1826434</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9">
         <v>1378</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9">
         <v>1461.55</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9">
         <v>4.33</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9">
         <v>17686</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9">
         <v>16916</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9">
         <v>152</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="10">
+      <c r="Q9" s="25">
         <f>I9/E9</f>
         <v>8.8020915662650605</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="26">
         <f>I9/E9/C9*1000</f>
         <v>128.02297417263082</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="30">
         <f>J9/I9</f>
         <v>7.5447566131598516E-4</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="28">
         <f>N9/E9</f>
         <v>8.1522891566265063E-2</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="28">
         <f>N9/E9/C9*1000</f>
         <v>1.1857185264314085</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="29">
         <f>O9/N9</f>
         <v>8.9855757862378812E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="19">
+    <row r="10" spans="1:22" ht="14.45">
+      <c r="A10" s="31">
         <v>44250.394444444399</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
         <v>73.268000000000001</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="54">
         <v>34</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10">
         <v>309882</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10">
         <v>661.87</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10">
         <v>2.27</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10">
         <v>2838596</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10">
         <v>2816273</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10">
         <v>1712</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10">
         <v>1461.3</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10">
         <v>4.4800000000000004</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10">
         <v>27158</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10">
         <v>26140</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10">
         <v>185</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="10">
+      <c r="Q10" s="25">
         <f>I10/E10</f>
         <v>9.0882109964438076</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="26">
         <f>I10/E10/C10*1000</f>
         <v>124.04065890216475</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="30">
         <f>J10/I10</f>
         <v>6.078956123926906E-4</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="28">
         <f>N10/E10</f>
         <v>8.4354689849684722E-2</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="28">
         <f>N10/E10/C10*1000</f>
         <v>1.1513169439548605</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="29">
         <f>O10/N10</f>
         <v>7.0772762050497319E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="20">
+    <row r="11" spans="1:22" ht="14.45">
+      <c r="A11" s="33">
         <v>44244.395833333299</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="34">
         <v>80.89</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="54">
         <v>40</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="35">
         <v>162400</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="36">
         <v>661.95</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="36">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="36">
         <v>1503571</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="36">
         <v>1492033</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="36">
         <v>1245</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11">
         <v>1461.48</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11">
         <v>4.42</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11">
         <v>14360</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11">
         <v>13828</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11">
         <v>134</v>
       </c>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="10">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="25">
         <f>I11/E11</f>
         <v>9.1873953201970444</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="26">
         <f>I11/E11/C11*1000</f>
         <v>113.57887650138515</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="30">
         <f>J11/I11</f>
         <v>8.3443194621030505E-4</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="28">
         <f>N11/E11</f>
         <v>8.5147783251231526E-2</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="28">
         <f>N11/E11/C11*1000</f>
         <v>1.0526367072719931</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="29">
         <f>O11/N11</f>
         <v>9.6904830778131324E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="16">
+    <row r="12" spans="1:22" ht="14.45">
+      <c r="A12" s="31">
         <v>44292.353472222203</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
         <v>31.154</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="54">
         <v>17.5</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12">
         <v>407000</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12">
         <v>661.95</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12">
         <v>2.25</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12">
         <v>2182259</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12">
         <v>2164289</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12">
         <v>1502</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12">
         <v>1461.56</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12">
         <v>22275</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12">
         <v>20927</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12">
         <v>178</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="25">
         <f>I12/E12</f>
         <v>5.317663390663391</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="26">
         <f>I12/E12/C12*1000</f>
         <v>170.68958691222286</v>
       </c>
-      <c r="S12" s="15">
+      <c r="S12" s="30">
         <f>J12/I12</f>
         <v>6.9399234575419453E-4</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="28">
         <f>N12/E12</f>
         <v>5.1417690417690419E-2</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="28">
         <f>N12/E12/C12*1000</f>
         <v>1.6504362334753298</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="29">
         <f>O12/N12</f>
         <v>8.5057581115305578E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="16">
+    <row r="13" spans="1:22" ht="14.45">
+      <c r="A13" s="31">
         <v>44295.577777777798</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
         <v>43.481000000000002</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="54">
         <v>23.5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13">
         <v>240300</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13">
         <v>661.98</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13">
         <v>2.25</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13">
         <v>1615660</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13">
         <v>1603135</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13">
         <v>1291</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13">
         <v>1461.59</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13">
         <v>4.18</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13">
         <v>15522</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13">
         <v>14734</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13">
         <v>145</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="25">
         <f>I13/E13</f>
         <v>6.6713899292550982</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="26">
         <f>I13/E13/C13*1000</f>
         <v>153.43230213783258</v>
       </c>
-      <c r="S13" s="15">
+      <c r="S13" s="30">
         <f>J13/I13</f>
         <v>8.0529712095363151E-4</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="28">
         <f>N13/E13</f>
         <v>6.1315022888056597E-2</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="28">
         <f>N13/E13/C13*1000</f>
         <v>1.4101566865540487</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="29">
         <f>O13/N13</f>
         <v>9.841183656848107E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="16">
+    <row r="14" spans="1:22" ht="14.45">
+      <c r="A14" s="31">
         <v>44298.489583333299</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
         <v>36.802</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="54">
         <v>19.5</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14">
         <v>251000</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14">
         <v>661.95</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14">
         <v>2.25</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14">
         <v>1519453</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14">
         <v>1506922</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14">
         <v>1253</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14">
         <v>1461.53</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14">
         <v>4.26</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14">
         <v>15020</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14">
         <v>14314</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14">
         <v>141</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="25">
         <f>I14/E14</f>
         <v>6.0036733067729084</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="26">
         <f>I14/E14/C14*1000</f>
         <v>163.13443037804763</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="30">
         <f>J14/I14</f>
         <v>8.3149625528063163E-4</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="28">
         <f>N14/E14</f>
         <v>5.702788844621514E-2</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="28">
         <f>N14/E14/C14*1000</f>
         <v>1.5495866650240513</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="29">
         <f>O14/N14</f>
         <v>9.8504960178845882E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="16">
+    <row r="15" spans="1:22" ht="14.45">
+      <c r="A15" s="31">
         <v>44301.759722222203</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15">
         <v>37.835000000000001</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="54">
         <v>20.5</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15">
         <v>249400</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15">
         <v>661.96</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15">
         <v>1527986</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15">
         <v>1515887</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15">
         <v>1256</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15">
         <v>1461.5</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15">
         <v>4.33</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15">
         <v>15299</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15">
         <v>14566</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15">
         <v>143</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="25">
         <f>I15/E15</f>
         <v>6.0781355252606257</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="26">
         <f>I15/E15/C15*1000</f>
         <v>160.64848751845184</v>
       </c>
-      <c r="S15" s="15">
+      <c r="S15" s="30">
         <f>J15/I15</f>
         <v>8.2855780147200948E-4</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="28">
         <f>N15/E15</f>
         <v>5.8404170008019243E-2</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="28">
         <f>N15/E15/C15*1000</f>
         <v>1.5436545528748311</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="29">
         <f>O15/N15</f>
         <v>9.8173829465879447E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="16">
+    <row r="16" spans="1:22" ht="14.45">
+      <c r="A16" s="31">
         <v>44304.560416666704</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16">
         <v>42.381999999999998</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="54">
         <v>22.5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="32">
         <v>241500</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="37">
         <v>662.02</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="37">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="37">
         <v>1612475</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="37">
         <v>1600006</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="37">
         <v>1290</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="37">
         <v>1461.67</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="37">
         <v>4.33</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="37">
         <v>16056</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="37">
         <v>15213</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="37">
         <v>148</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="25">
         <f>I16/E16</f>
         <v>6.6252836438923399</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="26">
         <f>I16/E16/C16*1000</f>
         <v>156.32305327479449</v>
       </c>
-      <c r="S16" s="15">
+      <c r="S16" s="30">
         <f>J16/I16</f>
         <v>8.062469765738379E-4</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="28">
         <f>N16/E16</f>
         <v>6.2993788819875773E-2</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="28">
         <f>N16/E16/C16*1000</f>
         <v>1.4863335571675658</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="29">
         <f>O16/N16</f>
         <v>9.728521659107342E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="16">
+    <row r="17" spans="1:22" ht="14.45">
+      <c r="A17" s="31">
         <v>44306.593055555597</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
         <v>33.32</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="54">
         <v>20</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="38">
         <v>73000</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17">
         <v>661.97</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17">
         <v>408447</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17">
         <v>405185</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17">
         <v>649</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17">
         <v>1461.46</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17">
         <v>4.38</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17">
         <v>3981</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17">
         <v>3798</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17">
         <v>72</v>
       </c>
       <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="39">
         <f>I17/E17</f>
         <v>5.5504794520547946</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="40">
         <f>I17/E17/C17*1000</f>
         <v>166.58101596803104</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="41">
         <f>J17/I17</f>
         <v>1.6017374779421745E-3</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="42">
         <f>N17/E17</f>
         <v>5.2027397260273972E-2</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="42">
         <f>N17/E17/C17*1000</f>
         <v>1.5614464964067818</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V17" s="43">
         <f>O17/N17</f>
         <v>1.8957345971563982E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="16">
+    <row r="18" spans="1:22" ht="14.45">
+      <c r="A18" s="31">
         <v>44307.351388888899</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18">
         <v>46.83</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="54">
         <v>25</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="38">
         <v>65400</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18">
         <v>661.97</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18">
         <v>2.25</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18">
         <v>466677</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18">
         <v>462884</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18">
         <v>694</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18">
         <v>1461.4</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18">
         <v>4.46</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18">
         <v>4488</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18">
         <v>4360</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18">
         <v>73</v>
       </c>
       <c r="P18" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="39">
         <f>I18/E18</f>
         <v>7.0777370030581039</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="40">
         <f>I18/E18/C18*1000</f>
         <v>151.1368140734167</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="41">
         <f>J18/I18</f>
         <v>1.4992957198779824E-3</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="42">
         <f>N18/E18</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="42">
         <f>N18/E18/C18*1000</f>
         <v>1.4235888675350559</v>
       </c>
-      <c r="V18" s="30">
+      <c r="V18" s="43">
         <f>O18/N18</f>
         <v>1.6743119266055047E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="16">
+    <row r="19" spans="1:22" ht="14.45">
+      <c r="A19" s="31">
         <v>44308.356249999997</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19">
         <v>25.041</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="54">
         <v>14.5</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="38">
         <v>49200</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19">
         <v>661.93</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19">
         <v>2.25</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19">
         <v>221903</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19">
         <v>219905</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19">
         <v>479</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19">
         <v>1461.42</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19">
         <v>2286</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19">
         <v>2130</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19">
         <v>58</v>
       </c>
       <c r="P19" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="39">
         <f>I19/E19</f>
         <v>4.4696138211382115</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="40">
         <f>I19/E19/C19*1000</f>
         <v>178.49182625047769</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="41">
         <f>J19/I19</f>
         <v>2.1782133193879176E-3</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="42">
         <f>N19/E19</f>
         <v>4.3292682926829265E-2</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="42">
         <f>N19/E19/C19*1000</f>
         <v>1.7288719670472132</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="43">
         <f>O19/N19</f>
         <v>2.7230046948356807E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="16">
+    <row r="20" spans="1:22" ht="14.45">
+      <c r="A20" s="31">
         <v>44307.784722222197</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>73</v>
+      <c r="B20" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C20">
         <v>55.085000000000001</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="54">
         <v>27.5</v>
       </c>
       <c r="E20">
@@ -9376,42 +9530,42 @@
       <c r="P20" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="39">
         <f>I20/E20</f>
         <v>7.8262087912087912</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="40">
         <f>I20/E20/C20*1000</f>
         <v>142.07513463209207</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="41">
         <f>J20/I20</f>
         <v>1.9096161811888765E-3</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="42">
         <f>N20/E20</f>
         <v>7.008241758241758E-2</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="42">
         <f>N20/E20/C20*1000</f>
         <v>1.2722595549136351</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="43">
         <f>O20/N20</f>
         <v>2.3520188161505293E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="16">
+    <row r="21" spans="1:22" ht="14.45">
+      <c r="A21" s="31">
         <v>44309.539583333302</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>73</v>
+      <c r="B21" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C21">
         <v>14.555</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="54">
         <v>10.5</v>
       </c>
       <c r="E21">
@@ -9450,42 +9604,42 @@
       <c r="P21" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="39">
         <f>I21/E21</f>
         <v>2.8384374999999999</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="40">
         <f>I21/E21/C21*1000</f>
         <v>195.01459979388528</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="41">
         <f>J21/I21</f>
         <v>4.7781569965870303E-3</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="42">
         <f>N21/E21</f>
         <v>2.9062500000000002E-2</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="42">
         <f>N21/E21/C21*1000</f>
         <v>1.9967365166609412</v>
       </c>
-      <c r="V21" s="30">
+      <c r="V21" s="43">
         <f>O21/N21</f>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="16">
+    <row r="22" spans="1:22" ht="14.45">
+      <c r="A22" s="31">
         <v>44308.625</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>73</v>
+      <c r="B22" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C22">
         <v>65.659000000000006</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="54">
         <v>31.5</v>
       </c>
       <c r="E22">
@@ -9524,42 +9678,42 @@
       <c r="P22" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="39">
         <f>I22/E22</f>
         <v>8.7140178571428564</v>
       </c>
-      <c r="R22" s="27">
+      <c r="R22" s="40">
         <f>I22/E22/C22*1000</f>
         <v>132.71627434385013</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="41">
         <f>J22/I22</f>
         <v>2.3053987315183868E-3</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="42">
         <f>N22/E22</f>
         <v>8.1517857142857142E-2</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="42">
         <f>N22/E22/C22*1000</f>
         <v>1.2415336380824735</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="43">
         <f>O22/N22</f>
         <v>2.628696604600219E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="16">
+    <row r="23" spans="1:22" ht="14.45">
+      <c r="A23" s="31">
         <v>44310.691666666702</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>73</v>
+      <c r="B23" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C23">
         <v>7.8019999999999996</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="54">
         <v>6.5</v>
       </c>
       <c r="E23">
@@ -9598,42 +9752,42 @@
       <c r="P23" t="s">
         <v>25</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="39">
         <f>I23/E23</f>
         <v>1.625</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="40">
         <f>I23/E23/C23*1000</f>
         <v>208.27992822353244</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="41">
         <f>J23/I23</f>
         <v>2.807411566535654E-3</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="42">
         <f>N23/E23</f>
         <v>1.9549878345498782E-2</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="42">
         <f>N23/E23/C23*1000</f>
         <v>2.5057521591257093</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="43">
         <f>O23/N23</f>
         <v>3.7336652146857496E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="16">
+    <row r="24" spans="1:22" ht="14.45">
+      <c r="A24" s="31">
         <v>44309.734722222202</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>73</v>
+      <c r="B24" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C24">
         <v>72.277000000000001</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="54">
         <v>34.5</v>
       </c>
       <c r="E24">
@@ -9672,42 +9826,42 @@
       <c r="P24" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="39">
         <f>I24/E24</f>
         <v>9.1288</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="40">
         <f>I24/E24/C24*1000</f>
         <v>126.30297328334048</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="41">
         <f>J24/I24</f>
         <v>2.760494259924634E-3</v>
       </c>
-      <c r="T24" s="29">
+      <c r="T24" s="42">
         <f>N24/E24</f>
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="42">
         <f>N24/E24/C24*1000</f>
         <v>1.1234555944491331</v>
       </c>
-      <c r="V24" s="30">
+      <c r="V24" s="43">
         <f>O24/N24</f>
         <v>3.3661740558292283E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="16">
+    <row r="25" spans="1:22" ht="14.45">
+      <c r="A25" s="31">
         <v>44311.537499999999</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>73</v>
+      <c r="B25" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C25">
         <v>4.8070000000000004</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="54">
         <v>5</v>
       </c>
       <c r="E25">
@@ -9746,42 +9900,42 @@
       <c r="P25" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="39">
         <f>I25/E25</f>
         <v>0.99802777777777774</v>
       </c>
-      <c r="R25" s="27">
+      <c r="R25" s="40">
         <f>I25/E25/C25*1000</f>
         <v>207.61967501097934</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="41">
         <f>J25/I25</f>
         <v>3.8687411283364415E-3</v>
       </c>
-      <c r="T25" s="29">
+      <c r="T25" s="42">
         <f>N25/E25</f>
         <v>1.2263888888888888E-2</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="42">
         <f>N25/E25/C25*1000</f>
         <v>2.5512562697917383</v>
       </c>
-      <c r="V25" s="30">
+      <c r="V25" s="43">
         <f>O25/N25</f>
         <v>6.9082672706681766E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="16">
+    <row r="26" spans="1:22" ht="14.45">
+      <c r="A26" s="31">
         <v>44312.352083333302</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>73</v>
+      <c r="B26" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C26">
         <v>75.233999999999995</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="54">
         <v>35.5</v>
       </c>
       <c r="E26">
@@ -9820,42 +9974,42 @@
       <c r="P26" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="39">
         <f>I26/E26</f>
         <v>9.3515142857142859</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="40">
         <f>I26/E26/C26*1000</f>
         <v>124.29904412518657</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="41">
         <f>J26/I26</f>
         <v>1.2587724524370384E-3</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="42">
         <f>N26/E26</f>
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="42">
         <f>N26/E26/C26*1000</f>
         <v>1.1537336842385093</v>
       </c>
-      <c r="V26" s="30">
+      <c r="V26" s="43">
         <f>O26/N26</f>
         <v>1.4647794601711653E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="16">
+    <row r="27" spans="1:22" ht="14.45">
+      <c r="A27" s="31">
         <v>44312.579166666699</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>73</v>
+      <c r="B27" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C27">
         <v>1.63</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="54">
         <v>2</v>
       </c>
       <c r="E27">
@@ -9894,42 +10048,42 @@
       <c r="P27" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="39">
         <f>I27/E27</f>
         <v>0.34311827956989249</v>
       </c>
-      <c r="R27" s="27">
+      <c r="R27" s="40">
         <f>I27/E27/C27*1000</f>
         <v>210.50201200606901</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="41">
         <f>J27/I27</f>
         <v>1.3318708868693199E-2</v>
       </c>
-      <c r="T27" s="29">
+      <c r="T27" s="42">
         <f>N27/E27</f>
         <v>1.0376344086021505E-2</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="42">
         <f>N27/E27/C27*1000</f>
         <v>6.3658552674978566</v>
       </c>
-      <c r="V27" s="30">
+      <c r="V27" s="43">
         <f>O27/N27</f>
         <v>0.11398963730569948</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="16">
+    <row r="28" spans="1:22" ht="14.45">
+      <c r="A28" s="31">
         <v>44312.734027777798</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>73</v>
+      <c r="B28" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C28">
         <v>78.38</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="54">
         <v>36.5</v>
       </c>
       <c r="E28">
@@ -9968,42 +10122,42 @@
       <c r="P28" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="39">
         <f>I28/E28</f>
         <v>9.5768181818181812</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="40">
         <f>I28/E28/C28*1000</f>
         <v>122.18446264121181</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="41">
         <f>J28/I28</f>
         <v>2.8636068789849225E-3</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28" s="42">
         <f>N28/E28</f>
         <v>9.4848484848484849E-2</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="42">
         <f>N28/E28/C28*1000</f>
         <v>1.2101108043950606</v>
       </c>
-      <c r="V28" s="30">
+      <c r="V28" s="43">
         <f>O28/N28</f>
         <v>2.8753993610223641E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="16">
+    <row r="29" spans="1:22" ht="14.45">
+      <c r="A29" s="31">
         <v>44313.353472222203</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>73</v>
+      <c r="B29" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="C29">
         <v>80</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="54">
         <v>37.5</v>
       </c>
       <c r="E29">
@@ -10042,42 +10196,42 @@
       <c r="P29" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="39">
         <f>I29/E29</f>
         <v>9.7089615384615389</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="40">
         <f>I29/E29/C29*1000</f>
         <v>121.36201923076923</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="41">
         <f>J29/I29</f>
         <v>1.4320631613140913E-3</v>
       </c>
-      <c r="T29" s="29">
+      <c r="T29" s="42">
         <f>N29/E29</f>
         <v>8.9846153846153839E-2</v>
       </c>
-      <c r="U29" s="29">
+      <c r="U29" s="42">
         <f>N29/E29/C29*1000</f>
         <v>1.1230769230769231</v>
       </c>
-      <c r="V29" s="30">
+      <c r="V29" s="43">
         <f>O29/N29</f>
         <v>1.6267123287671232E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="16">
+    <row r="30" spans="1:22" ht="14.45">
+      <c r="A30" s="31">
         <v>44340.417361111096</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>73</v>
+      <c r="B30" t="s">
+        <v>81</v>
       </c>
       <c r="C30">
         <v>3.8359999999999999</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="52">
         <v>4</v>
       </c>
       <c r="E30">
@@ -10113,42 +10267,42 @@
       <c r="O30">
         <v>44</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="39">
         <f>I30/E30</f>
         <v>0.77616161616161616</v>
       </c>
-      <c r="R30" s="27">
+      <c r="R30" s="40">
         <f>I30/E30/C30*1000</f>
         <v>202.33618773764761</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="41">
         <f>J30/I30</f>
         <v>4.8802706923477355E-3</v>
       </c>
-      <c r="T30" s="29">
+      <c r="T30" s="42">
         <f>N30/E30</f>
         <v>1.1952861952861953E-2</v>
       </c>
-      <c r="U30" s="29">
+      <c r="U30" s="42">
         <f>N30/E30/C30*1000</f>
         <v>3.1159702692549409</v>
       </c>
-      <c r="V30" s="30">
+      <c r="V30" s="43">
         <f>O30/N30</f>
         <v>6.1971830985915494E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="16">
+    <row r="31" spans="1:22" ht="14.45">
+      <c r="A31" s="31">
         <v>44341.357638888898</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>73</v>
+      <c r="B31" t="s">
+        <v>81</v>
       </c>
       <c r="C31">
         <v>7.6219999999999999</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="52">
         <v>6</v>
       </c>
       <c r="E31">
@@ -10184,42 +10338,42 @@
       <c r="O31">
         <v>44</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="39">
         <f>I31/E31</f>
         <v>1.5886428571428572</v>
       </c>
-      <c r="R31" s="27">
+      <c r="R31" s="40">
         <f>I31/E31/C31*1000</f>
         <v>208.42860891404584</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="41">
         <f>J31/I31</f>
         <v>3.9866312965544113E-3</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="42">
         <f>N31/E31</f>
         <v>1.8833333333333334E-2</v>
       </c>
-      <c r="U31" s="29">
+      <c r="U31" s="42">
         <f>N31/E31/C31*1000</f>
         <v>2.4709175194612087</v>
       </c>
-      <c r="V31" s="30">
+      <c r="V31" s="43">
         <f>O31/N31</f>
         <v>5.5625790139064477E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="16">
+    <row r="32" spans="1:22" ht="14.45">
+      <c r="A32" s="31">
         <v>44342.354166666701</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>73</v>
+      <c r="B32" t="s">
+        <v>81</v>
       </c>
       <c r="C32">
         <v>10.135</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="52">
         <v>8</v>
       </c>
       <c r="E32">
@@ -10255,42 +10409,42 @@
       <c r="O32">
         <v>36</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="39">
         <f>I32/E32</f>
         <v>2.0829581151832461</v>
       </c>
-      <c r="R32" s="27">
+      <c r="R32" s="40">
         <f>I32/E32/C32*1000</f>
         <v>205.52127431507117</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="41">
         <f>J32/I32</f>
         <v>3.6320677650843922E-3</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="42">
         <f>N32/E32</f>
         <v>2.494764397905759E-2</v>
       </c>
-      <c r="U32" s="29">
+      <c r="U32" s="42">
         <f>N32/E32/C32*1000</f>
         <v>2.4615336930495895</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="43">
         <f>O32/N32</f>
         <v>3.7775445960125921E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="16">
+    <row r="33" spans="1:22" ht="14.45">
+      <c r="A33" s="31">
         <v>44343.360416666699</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>73</v>
+      <c r="B33" t="s">
+        <v>81</v>
       </c>
       <c r="C33">
         <v>19.242000000000001</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="52">
         <v>11.5</v>
       </c>
       <c r="E33">
@@ -10326,42 +10480,42 @@
       <c r="O33">
         <v>54</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="39">
         <f>I33/E33</f>
         <v>3.6360285132382892</v>
       </c>
-      <c r="R33" s="27">
+      <c r="R33" s="40">
         <f>I33/E33/C33*1000</f>
         <v>188.96312822150969</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="41">
         <f>J33/I33</f>
         <v>2.4197749385253937E-3</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="42">
         <f>N33/E33</f>
         <v>3.7087576374745419E-2</v>
       </c>
-      <c r="U33" s="29">
+      <c r="U33" s="42">
         <f>N33/E33/C33*1000</f>
         <v>1.9274283533284178</v>
       </c>
-      <c r="V33" s="30">
+      <c r="V33" s="43">
         <f>O33/N33</f>
         <v>2.9654036243822075E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="16">
+    <row r="34" spans="1:22" ht="14.45">
+      <c r="A34" s="31">
         <v>44344.756249999999</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>73</v>
+      <c r="B34" t="s">
+        <v>81</v>
       </c>
       <c r="C34">
         <v>24.771999999999998</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="52">
         <v>13.5</v>
       </c>
       <c r="E34">
@@ -10397,34 +10551,34 @@
       <c r="O34">
         <v>45</v>
       </c>
-      <c r="Q34" s="35">
+      <c r="Q34" s="47">
         <f>I34/E34</f>
         <v>4.5107142857142861</v>
       </c>
-      <c r="R34" s="36">
+      <c r="R34" s="48">
         <f>I34/E34/C34*1000</f>
         <v>182.08922516204933</v>
       </c>
-      <c r="S34" s="37">
+      <c r="S34" s="49">
         <f>J34/I34</f>
         <v>2.7975719187120613E-3</v>
       </c>
-      <c r="T34" s="38">
+      <c r="T34" s="50">
         <f>N34/E34</f>
         <v>4.3129251700680271E-2</v>
       </c>
-      <c r="U34" s="38">
+      <c r="U34" s="50">
         <f>N34/E34/C34*1000</f>
         <v>1.7410484297061311</v>
       </c>
-      <c r="V34" s="39">
+      <c r="V34" s="51">
         <f>O34/N34</f>
         <v>3.5488958990536279E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" ht="14.45">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>3.8730000000000002</v>
@@ -10465,34 +10619,34 @@
       <c r="O35">
         <v>108</v>
       </c>
-      <c r="Q35" s="26">
+      <c r="Q35" s="39">
         <f>I35/E35</f>
         <v>0.6795528455284553</v>
       </c>
-      <c r="R35" s="27">
+      <c r="R35" s="40">
         <f>I35/E35/C35*1000</f>
         <v>175.45903576773955</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="41">
         <f>J35/I35</f>
         <v>2.1663148719438725E-3</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="42">
         <f>N35/E35</f>
         <v>1.1144018583042974E-2</v>
       </c>
-      <c r="U35" s="29">
+      <c r="U35" s="42">
         <f>N35/E35/C35*1000</f>
         <v>2.8773608528383612</v>
       </c>
-      <c r="V35" s="30">
+      <c r="V35" s="43">
         <f>O35/N35</f>
         <v>2.8139656070870246E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" ht="14.45">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>5.5620000000000003</v>
@@ -10536,34 +10690,34 @@
       <c r="P36" t="s">
         <v>43</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="39">
         <f>I36/E36</f>
         <v>0.87402552204176331</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="40">
         <f>I36/E36/C36*1000</f>
         <v>157.14230888920591</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="41">
         <f>J36/I36</f>
         <v>2.6944160550032518E-3</v>
       </c>
-      <c r="T36" s="29">
+      <c r="T36" s="42">
         <f>N36/E36</f>
         <v>1.3172853828306264E-2</v>
       </c>
-      <c r="U36" s="29">
+      <c r="U36" s="42">
         <f>N36/E36/C36*1000</f>
         <v>2.3683663840895832</v>
       </c>
-      <c r="V36" s="30">
+      <c r="V36" s="43">
         <f>O36/N36</f>
         <v>3.4786437692646409E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" ht="14.45">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>4.5830000000000002</v>
@@ -10607,34 +10761,34 @@
       <c r="P37" t="s">
         <v>44</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="39">
         <f>I37/E37</f>
         <v>0.76103286384976521</v>
       </c>
-      <c r="R37" s="27">
+      <c r="R37" s="40">
         <f>I37/E37/C37*1000</f>
         <v>166.05561070254532</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="41">
         <f>J37/I37</f>
         <v>8.2048118445404074E-3</v>
       </c>
-      <c r="T37" s="29">
+      <c r="T37" s="42">
         <f>N37/E37</f>
         <v>1.1596244131455399E-2</v>
       </c>
-      <c r="U37" s="29">
+      <c r="U37" s="42">
         <f>N37/E37/C37*1000</f>
         <v>2.5302736485828929</v>
       </c>
-      <c r="V37" s="30">
+      <c r="V37" s="43">
         <f>O37/N37</f>
         <v>0.10931174089068826</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" ht="14.45">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>4.5830000000000002</v>
@@ -10678,34 +10832,34 @@
       <c r="P38" t="s">
         <v>45</v>
       </c>
-      <c r="Q38" s="26">
+      <c r="Q38" s="39">
         <f>I38/E38</f>
         <v>0.75350808408946646</v>
       </c>
-      <c r="R38" s="27">
+      <c r="R38" s="40">
         <f>I38/E38/C38*1000</f>
         <v>164.41372116287727</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="41">
         <f>J38/I38</f>
         <v>2.3290732766096623E-3</v>
       </c>
-      <c r="T38" s="29">
+      <c r="T38" s="42">
         <f>N38/E38</f>
         <v>1.1448414921026101E-2</v>
       </c>
-      <c r="U38" s="29">
+      <c r="U38" s="42">
         <f>N38/E38/C38*1000</f>
         <v>2.4980176567807333</v>
       </c>
-      <c r="V38" s="30">
+      <c r="V38" s="43">
         <f>O38/N38</f>
         <v>3.1963470319634701E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" ht="14.45">
       <c r="B39" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>2.9590000000000001</v>
@@ -10749,34 +10903,34 @@
       <c r="P39" t="s">
         <v>43</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="39">
         <f>I39/E39</f>
         <v>0.64148637820512822</v>
       </c>
-      <c r="R39" s="27">
+      <c r="R39" s="40">
         <f>I39/E39/C39*1000</f>
         <v>216.79161142451105</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="41">
         <f>J39/I39</f>
         <v>2.6231146363551198E-3</v>
       </c>
-      <c r="T39" s="29">
+      <c r="T39" s="42">
         <f>N39/E39</f>
         <v>1.0184294871794872E-2</v>
       </c>
-      <c r="U39" s="29">
+      <c r="U39" s="42">
         <f>N39/E39/C39*1000</f>
         <v>3.4418029306505145</v>
       </c>
-      <c r="V39" s="30">
+      <c r="V39" s="43">
         <f>O39/N39</f>
         <v>3.7372147915027534E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" ht="14.45">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <v>3.7519999999999998</v>
@@ -10817,34 +10971,34 @@
       <c r="O40">
         <v>64</v>
       </c>
-      <c r="Q40" s="26">
+      <c r="Q40" s="39">
         <f>I40/E40</f>
         <v>0.70961352657004828</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="40">
         <f>I40/E40/C40*1000</f>
         <v>189.12940473615362</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="41">
         <f>J40/I40</f>
         <v>3.8532235005786643E-3</v>
       </c>
-      <c r="T40" s="29">
+      <c r="T40" s="42">
         <f>N40/E40</f>
         <v>1.1178743961352657E-2</v>
       </c>
-      <c r="U40" s="29">
+      <c r="U40" s="42">
         <f>N40/E40/C40*1000</f>
         <v>2.9794093713626486</v>
       </c>
-      <c r="V40" s="30">
+      <c r="V40" s="43">
         <f>O40/N40</f>
         <v>5.5315471045808126E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" ht="14.45">
       <c r="B41" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>2.3199999999999998</v>
@@ -10888,34 +11042,34 @@
       <c r="P41" t="s">
         <v>43</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="39">
         <f>I41/E41</f>
         <v>0.56296551724137933</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="40">
         <f>I41/E41/C41*1000</f>
         <v>242.65755053507732</v>
       </c>
-      <c r="S41" s="28">
+      <c r="S41" s="41">
         <f>J41/I41</f>
         <v>4.1498223692269997E-3</v>
       </c>
-      <c r="T41" s="29">
+      <c r="T41" s="42">
         <f>N41/E41</f>
         <v>1.0413793103448275E-2</v>
       </c>
-      <c r="U41" s="29">
+      <c r="U41" s="42">
         <f>N41/E41/C41*1000</f>
         <v>4.4887039239001192</v>
       </c>
-      <c r="V41" s="30">
+      <c r="V41" s="43">
         <f>O41/N41</f>
         <v>5.4635761589403975E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" ht="14.45">
       <c r="B42" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>2.9350000000000001</v>
@@ -10956,34 +11110,34 @@
       <c r="O42">
         <v>70</v>
       </c>
-      <c r="Q42" s="26">
+      <c r="Q42" s="39">
         <f>I42/E42</f>
         <v>0.63197642163661583</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="40">
         <f>I42/E42/C42*1000</f>
         <v>215.32416410106163</v>
       </c>
-      <c r="S42" s="28">
+      <c r="S42" s="41">
         <f>J42/I42</f>
         <v>3.4785089596295442E-3</v>
       </c>
-      <c r="T42" s="29">
+      <c r="T42" s="42">
         <f>N42/E42</f>
         <v>1.0686546463245492E-2</v>
       </c>
-      <c r="U42" s="29">
+      <c r="U42" s="42">
         <f>N42/E42/C42*1000</f>
         <v>3.6410720488059596</v>
       </c>
-      <c r="V42" s="30">
+      <c r="V42" s="43">
         <f>O42/N42</f>
         <v>4.5425048669695003E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" ht="14.45">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C43">
         <v>1.897</v>
@@ -11024,34 +11178,34 @@
       <c r="O43">
         <v>73</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="39">
         <f>I43/E43</f>
         <v>0.48723753280839893</v>
       </c>
-      <c r="R43" s="27">
+      <c r="R43" s="40">
         <f>I43/E43/C43*1000</f>
         <v>256.84635361539216</v>
       </c>
-      <c r="S43" s="28">
+      <c r="S43" s="41">
         <f>J43/I43</f>
         <v>3.8919938051309678E-3</v>
       </c>
-      <c r="T43" s="29">
+      <c r="T43" s="42">
         <f>N43/E43</f>
         <v>8.9041994750656168E-3</v>
       </c>
-      <c r="U43" s="29">
+      <c r="U43" s="42">
         <f>N43/E43/C43*1000</f>
         <v>4.6938320901769197</v>
       </c>
-      <c r="V43" s="30">
+      <c r="V43" s="43">
         <f>O43/N43</f>
         <v>5.3795136330140013E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" ht="14.45">
       <c r="B44" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C44">
         <v>0.92900000000000005</v>
@@ -11092,34 +11246,34 @@
       <c r="O44">
         <v>54</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="Q44" s="39">
         <f>I44/E44</f>
         <v>0.27901639344262297</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="40">
         <f>I44/E44/C44*1000</f>
         <v>300.34057421165011</v>
       </c>
-      <c r="S44" s="28">
+      <c r="S44" s="41">
         <f>J44/I44</f>
         <v>7.0924962229310055E-3</v>
       </c>
-      <c r="T44" s="29">
+      <c r="T44" s="42">
         <f>N44/E44</f>
         <v>7.1194379391100703E-3</v>
       </c>
-      <c r="U44" s="29">
+      <c r="U44" s="42">
         <f>N44/E44/C44*1000</f>
         <v>7.6635499882777935</v>
       </c>
-      <c r="V44" s="30">
+      <c r="V44" s="43">
         <f>O44/N44</f>
         <v>8.8815789473684209E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" ht="14.45">
       <c r="B45" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>1.411</v>
@@ -11160,34 +11314,34 @@
       <c r="O45">
         <v>52</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="39">
         <f>I45/E45</f>
         <v>0.39659302325581397</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="40">
         <f>I45/E45/C45*1000</f>
         <v>281.07230563842239</v>
       </c>
-      <c r="S45" s="28">
+      <c r="S45" s="41">
         <f>J45/I45</f>
         <v>5.7173014337232823E-3</v>
       </c>
-      <c r="T45" s="29">
+      <c r="T45" s="42">
         <f>N45/E45</f>
         <v>8.6860465116279078E-3</v>
       </c>
-      <c r="U45" s="29">
+      <c r="U45" s="42">
         <f>N45/E45/C45*1000</f>
         <v>6.1559507523939816</v>
       </c>
-      <c r="V45" s="30">
+      <c r="V45" s="43">
         <f>O45/N45</f>
         <v>6.9611780455153954E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" ht="14.45">
       <c r="B46" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>3.198</v>
@@ -11228,34 +11382,34 @@
       <c r="O46">
         <v>56</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="39">
         <f>I46/E46</f>
         <v>0.66538004750593827</v>
       </c>
-      <c r="R46" s="27">
+      <c r="R46" s="40">
         <f>I46/E46/C46*1000</f>
         <v>208.06130316008077</v>
       </c>
-      <c r="S46" s="28">
+      <c r="S46" s="41">
         <f>J46/I46</f>
         <v>4.4444444444444444E-3</v>
       </c>
-      <c r="T46" s="29">
+      <c r="T46" s="42">
         <f>N46/E46</f>
         <v>1.1662707838479809E-2</v>
       </c>
-      <c r="U46" s="29">
+      <c r="U46" s="42">
         <f>N46/E46/C46*1000</f>
         <v>3.6468754967103845</v>
       </c>
-      <c r="V46" s="30">
+      <c r="V46" s="43">
         <f>O46/N46</f>
         <v>5.7026476578411409E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" ht="14.45">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>4.476</v>
@@ -11296,34 +11450,34 @@
       <c r="O47">
         <v>57</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="39">
         <f>I47/E47</f>
         <v>0.80042452830188682</v>
       </c>
-      <c r="R47" s="27">
+      <c r="R47" s="40">
         <f>I47/E47/C47*1000</f>
         <v>178.8258552953277</v>
       </c>
-      <c r="S47" s="28">
+      <c r="S47" s="41">
         <f>J47/I47</f>
         <v>3.9778419470799693E-3</v>
       </c>
-      <c r="T47" s="29">
+      <c r="T47" s="42">
         <f>N47/E47</f>
         <v>1.1875E-2</v>
       </c>
-      <c r="U47" s="29">
+      <c r="U47" s="42">
         <f>N47/E47/C47*1000</f>
         <v>2.6530384271671137</v>
       </c>
-      <c r="V47" s="30">
+      <c r="V47" s="43">
         <f>O47/N47</f>
         <v>5.6603773584905662E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" ht="14.45">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C48">
         <v>5.0910000000000002</v>
@@ -11364,34 +11518,34 @@
       <c r="O48">
         <v>37</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="39">
         <f>I48/E48</f>
         <v>0.84262886597938147</v>
       </c>
-      <c r="R48" s="27">
+      <c r="R48" s="40">
         <f>I48/E48/C48*1000</f>
         <v>165.51342879186436</v>
       </c>
-      <c r="S48" s="28">
+      <c r="S48" s="41">
         <f>J48/I48</f>
         <v>5.7808772251789322E-3</v>
       </c>
-      <c r="T48" s="29">
+      <c r="T48" s="42">
         <f>N48/E48</f>
         <v>1.2525773195876288E-2</v>
       </c>
-      <c r="U48" s="29">
+      <c r="U48" s="42">
         <f>N48/E48/C48*1000</f>
         <v>2.4603757996221343</v>
       </c>
-      <c r="V48" s="30">
+      <c r="V48" s="43">
         <f>O48/N48</f>
         <v>7.6131687242798354E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" ht="14.45">
       <c r="B49" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>4.3170000000000002</v>
@@ -11432,34 +11586,34 @@
       <c r="O49">
         <v>35</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="Q49" s="39">
         <f>I49/E49</f>
         <v>0.76565400843881859</v>
       </c>
-      <c r="R49" s="27">
+      <c r="R49" s="40">
         <f>I49/E49/C49*1000</f>
         <v>177.35788937660843</v>
       </c>
-      <c r="S49" s="28">
+      <c r="S49" s="41">
         <f>J49/I49</f>
         <v>5.5108563870825524E-3</v>
       </c>
-      <c r="T49" s="29">
+      <c r="T49" s="42">
         <f>N49/E49</f>
         <v>1.2742616033755275E-2</v>
       </c>
-      <c r="U49" s="29">
+      <c r="U49" s="42">
         <f>N49/E49/C49*1000</f>
         <v>2.9517294495611011</v>
       </c>
-      <c r="V49" s="30">
+      <c r="V49" s="43">
         <f>O49/N49</f>
         <v>5.7947019867549666E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" ht="14.45">
       <c r="B50" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <v>2.5640000000000001</v>
@@ -11500,34 +11654,34 @@
       <c r="O50">
         <v>31</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="Q50" s="39">
         <f>I50/E50</f>
         <v>0.58155080213903743</v>
       </c>
-      <c r="R50" s="27">
+      <c r="R50" s="40">
         <f>I50/E50/C50*1000</f>
         <v>226.81388538964018</v>
       </c>
-      <c r="S50" s="28">
+      <c r="S50" s="41">
         <f>J50/I50</f>
         <v>7.0804597701149422E-3</v>
       </c>
-      <c r="T50" s="29">
+      <c r="T50" s="42">
         <f>N50/E50</f>
         <v>1.1122994652406418E-2</v>
       </c>
-      <c r="U50" s="29">
+      <c r="U50" s="42">
         <f>N50/E50/C50*1000</f>
         <v>4.3381414400961065</v>
       </c>
-      <c r="V50" s="30">
+      <c r="V50" s="43">
         <f>O50/N50</f>
         <v>7.4519230769230768E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" ht="14.45">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <v>0.72399999999999998</v>
@@ -11568,33 +11722,33 @@
       <c r="O51">
         <v>52</v>
       </c>
-      <c r="Q51" s="26">
+      <c r="Q51" s="39">
         <f>I51/E51</f>
         <v>0.23309576837416482</v>
       </c>
-      <c r="R51" s="27">
+      <c r="R51" s="40">
         <f>I51/E51/C51*1000</f>
         <v>321.95548117978569</v>
       </c>
-      <c r="S51" s="28">
+      <c r="S51" s="41">
         <f>J51/I51</f>
         <v>7.5960252245365944E-3</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T51" s="42">
         <f>N51/E51</f>
         <v>7.2160356347438755E-3</v>
       </c>
-      <c r="U51" s="29">
+      <c r="U51" s="42">
         <f>N51/E51/C51*1000</f>
         <v>9.9669000479887782</v>
       </c>
-      <c r="V51" s="30">
+      <c r="V51" s="43">
         <f>O51/N51</f>
         <v>8.0246913580246909E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="16">
+    <row r="52" spans="1:22" ht="14.45">
+      <c r="A52" s="31">
         <v>44353.710416666698</v>
       </c>
       <c r="B52" t="s">
@@ -11639,36 +11793,36 @@
       <c r="O52">
         <v>76</v>
       </c>
-      <c r="Q52" s="26">
+      <c r="Q52" s="39">
         <f>I52/E52</f>
         <v>4.912002840909091</v>
       </c>
-      <c r="R52" s="27">
+      <c r="R52" s="40">
         <f>I52/E52/C52*1000</f>
         <v>170.87604678595599</v>
       </c>
-      <c r="S52" s="28">
+      <c r="S52" s="41">
         <f>J52/I52</f>
         <v>1.732190107141308E-3</v>
       </c>
-      <c r="T52" s="29">
+      <c r="T52" s="42">
         <f>N52/E52</f>
         <v>4.5028409090909091E-2</v>
       </c>
-      <c r="U52" s="29">
+      <c r="U52" s="42">
         <f>N52/E52/C52*1000</f>
         <v>1.5664234707753806</v>
       </c>
-      <c r="V52" s="30">
+      <c r="V52" s="43">
         <f>O52/N52</f>
         <v>2.3974763406940065E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="16">
+    <row r="53" spans="1:22" ht="14.45">
+      <c r="A53" s="31">
         <v>44355.370138888902</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" t="s">
         <v>47</v>
       </c>
       <c r="C53">
@@ -11710,36 +11864,36 @@
       <c r="O53">
         <v>50</v>
       </c>
-      <c r="Q53" s="26">
+      <c r="Q53" s="39">
         <f>I53/E53</f>
         <v>3.3345925925925926</v>
       </c>
-      <c r="R53" s="27">
+      <c r="R53" s="40">
         <f>I53/E53/C53*1000</f>
         <v>207.55586907709403</v>
       </c>
-      <c r="S53" s="28">
+      <c r="S53" s="41">
         <f>J53/I53</f>
         <v>2.4046471333051956E-3</v>
       </c>
-      <c r="T53" s="29">
+      <c r="T53" s="42">
         <f>N53/E53</f>
         <v>3.3814814814814811E-2</v>
       </c>
-      <c r="U53" s="29">
+      <c r="U53" s="42">
         <f>N53/E53/C53*1000</f>
         <v>2.1047438575136819</v>
       </c>
-      <c r="V53" s="30">
+      <c r="V53" s="43">
         <f>O53/N53</f>
         <v>2.7382256297918947E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="16">
+    <row r="54" spans="1:22" ht="14.45">
+      <c r="A54" s="31">
         <v>44357.433333333298</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" t="s">
         <v>47</v>
       </c>
       <c r="C54">
@@ -11781,36 +11935,36 @@
       <c r="O54">
         <v>13</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="39">
         <f>I54/E54</f>
         <v>2.2541176470588233</v>
       </c>
-      <c r="R54" s="27">
+      <c r="R54" s="40">
         <f>I54/E54/C54*1000</f>
         <v>231.66676742639501</v>
       </c>
-      <c r="S54" s="28">
+      <c r="S54" s="41">
         <f>J54/I54</f>
         <v>8.2854906054279746E-3</v>
       </c>
-      <c r="T54" s="29">
+      <c r="T54" s="42">
         <f>N54/E54</f>
         <v>2.7205882352941177E-2</v>
       </c>
-      <c r="U54" s="29">
+      <c r="U54" s="42">
         <f>N54/E54/C54*1000</f>
         <v>2.7960824617616833</v>
       </c>
-      <c r="V54" s="30">
+      <c r="V54" s="43">
         <f>O54/N54</f>
         <v>7.0270270270270274E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="16">
+    <row r="55" spans="1:22" ht="14.45">
+      <c r="A55" s="31">
         <v>44357.709027777797</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" t="s">
         <v>47</v>
       </c>
       <c r="C55">
@@ -11852,36 +12006,36 @@
       <c r="O55">
         <v>25</v>
       </c>
-      <c r="Q55" s="26">
+      <c r="Q55" s="39">
         <f>I55/E55</f>
         <v>2.2134745762711865</v>
       </c>
-      <c r="R55" s="27">
+      <c r="R55" s="40">
         <f>I55/E55/C55*1000</f>
         <v>227.48967895901194</v>
       </c>
-      <c r="S55" s="28">
+      <c r="S55" s="41">
         <f>J55/I55</f>
         <v>6.3555266281251199E-3</v>
       </c>
-      <c r="T55" s="29">
+      <c r="T55" s="42">
         <f>N55/E55</f>
         <v>2.4491525423728813E-2</v>
       </c>
-      <c r="U55" s="29">
+      <c r="U55" s="42">
         <f>N55/E55/C55*1000</f>
         <v>2.5171146375877504</v>
       </c>
-      <c r="V55" s="30">
+      <c r="V55" s="43">
         <f>O55/N55</f>
         <v>8.6505190311418678E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
-      <c r="A56" s="16">
+    <row r="56" spans="1:22" ht="14.45">
+      <c r="A56" s="31">
         <v>44360.662499999999</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" t="s">
         <v>47</v>
       </c>
       <c r="C56">
@@ -11923,36 +12077,36 @@
       <c r="O56">
         <v>85</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q56" s="39">
         <f>I56/E56</f>
         <v>1.7668932038834952</v>
       </c>
-      <c r="R56" s="27">
+      <c r="R56" s="40">
         <f>I56/E56/C56*1000</f>
         <v>243.57502121360562</v>
       </c>
-      <c r="S56" s="28">
+      <c r="S56" s="41">
         <f>J56/I56</f>
         <v>1.9060113193032585E-3</v>
       </c>
-      <c r="T56" s="29">
+      <c r="T56" s="42">
         <f>N56/E56</f>
         <v>2.066140776699029E-2</v>
       </c>
-      <c r="U56" s="29">
+      <c r="U56" s="42">
         <f>N56/E56/C56*1000</f>
         <v>2.8482778835112068</v>
       </c>
-      <c r="V56" s="30">
+      <c r="V56" s="43">
         <f>O56/N56</f>
         <v>2.4963289280469897E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
-      <c r="A57" s="16">
+    <row r="57" spans="1:22" ht="14.45">
+      <c r="A57" s="31">
         <v>44362.370138888902</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" t="s">
         <v>47</v>
       </c>
       <c r="C57">
@@ -11994,36 +12148,36 @@
       <c r="O57">
         <v>59</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="39">
         <f>I57/E57</f>
         <v>4.7895559845559843</v>
       </c>
-      <c r="R57" s="27">
+      <c r="R57" s="40">
         <f>I57/E57/C57*1000</f>
         <v>184.04380512434614</v>
       </c>
-      <c r="S57" s="28">
+      <c r="S57" s="41">
         <f>J57/I57</f>
         <v>2.0435390710966186E-3</v>
       </c>
-      <c r="T57" s="29">
+      <c r="T57" s="42">
         <f>N57/E57</f>
         <v>4.8957528957528959E-2</v>
       </c>
-      <c r="U57" s="29">
+      <c r="U57" s="42">
         <f>N57/E57/C57*1000</f>
         <v>1.8812453488137471</v>
       </c>
-      <c r="V57" s="30">
+      <c r="V57" s="43">
         <f>O57/N57</f>
         <v>2.3264984227129339E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="16">
+    <row r="58" spans="1:22" ht="14.45">
+      <c r="A58" s="31">
         <v>44362.868055555598</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" t="s">
         <v>47</v>
       </c>
       <c r="C58">
@@ -12065,36 +12219,36 @@
       <c r="O58">
         <v>40</v>
       </c>
-      <c r="Q58" s="26">
+      <c r="Q58" s="39">
         <f>I58/E58</f>
         <v>5.1604867256637172</v>
       </c>
-      <c r="R58" s="27">
+      <c r="R58" s="40">
         <f>I58/E58/C58*1000</f>
         <v>178.55737606531667</v>
       </c>
-      <c r="S58" s="28">
+      <c r="S58" s="41">
         <f>J58/I58</f>
         <v>2.9838716592212782E-3</v>
       </c>
-      <c r="T58" s="29">
+      <c r="T58" s="42">
         <f>N58/E58</f>
         <v>5.1460176991150443E-2</v>
       </c>
-      <c r="U58" s="29">
+      <c r="U58" s="42">
         <f>N58/E58/C58*1000</f>
         <v>1.7805673503045032</v>
       </c>
-      <c r="V58" s="30">
+      <c r="V58" s="43">
         <f>O58/N58</f>
         <v>3.4393809114359415E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="16">
+    <row r="59" spans="1:22" ht="14.45">
+      <c r="A59" s="31">
         <v>44369.4243055556</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" t="s">
         <v>47</v>
       </c>
       <c r="C59">
@@ -12139,37 +12293,37 @@
       <c r="P59" t="s">
         <v>48</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="39">
         <f>I59/E59</f>
         <v>5.5362237762237765</v>
       </c>
-      <c r="R59" s="27">
+      <c r="R59" s="40">
         <f>I59/E59/C59*1000</f>
         <v>171.27285534660859</v>
       </c>
-      <c r="S59" s="28">
+      <c r="S59" s="41">
         <f>J59/I59</f>
         <v>1.4799750741040152E-3</v>
       </c>
-      <c r="T59" s="29">
+      <c r="T59" s="42">
         <f>N59/E59</f>
         <v>5.4358974358974362E-2</v>
       </c>
-      <c r="U59" s="29">
+      <c r="U59" s="42">
         <f>N59/E59/C59*1000</f>
         <v>1.6816908290735788</v>
       </c>
-      <c r="V59" s="30">
+      <c r="V59" s="43">
         <f>O59/N59</f>
         <v>1.7152658662092625E-2</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="14.45">
-      <c r="A60" s="40">
+      <c r="A60" s="31">
         <v>44368.427083333299</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -12213,33 +12367,27 @@
       <c r="P60" t="s">
         <v>46</v>
       </c>
-      <c r="Q60" s="35">
+      <c r="Q60" s="47">
         <f>I60/E60</f>
         <v>3.426751592356688E-3</v>
       </c>
-      <c r="R60" s="36"/>
-      <c r="S60" s="37">
+      <c r="R60" s="48"/>
+      <c r="S60" s="49">
         <f>J60/I60</f>
         <v>0.16914498141263939</v>
       </c>
-      <c r="T60" s="38">
+      <c r="T60" s="50">
         <f>N60/E60</f>
         <v>4.9044585987261143E-3</v>
       </c>
-      <c r="U60" s="38"/>
-      <c r="V60" s="39">
+      <c r="U60" s="50"/>
+      <c r="V60" s="51">
         <f>O60/N60</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="K1:O1"/>
@@ -12248,6 +12396,12 @@
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
